--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EAF97B6-7533-441D-94D7-5EED9F54E346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1059C-1097-4595-B690-951A09D83560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>5.</t>
   </si>
   <si>
-    <t>FP II: Photoeffekt</t>
+    <t>Simon Keegan, Philipp Gebauer</t>
   </si>
   <si>
-    <t>Simon Keegan, Philipp Gebauer</t>
+    <t>FP II: Radioteleskop</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1463,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2">
         <v>43964</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E78FCE-5447-4BB5-8A28-69BBB383FF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA719E9-0CBA-44C8-BE42-DB72E376797E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Quadrant</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Sunpos</t>
   </si>
   <si>
@@ -128,13 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +137,13 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -181,16 +178,15 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -471,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,9 +478,8 @@
     <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
@@ -516,12 +511,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
+      <c r="A6" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>1410</v>
       </c>
     </row>
@@ -539,27 +534,27 @@
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="14">
         <v>0.45833333333333331</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
+      <c r="D9" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E9">
         <v>-10</v>
@@ -569,7 +564,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="14">
         <v>0.4597222222222222</v>
       </c>
       <c r="B10" s="5">
@@ -586,7 +581,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="14">
         <v>0.46111111111111108</v>
       </c>
       <c r="B11" s="5">
@@ -603,7 +598,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="14">
         <v>0.46249999999999997</v>
       </c>
       <c r="B12" s="5">
@@ -620,7 +615,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="14">
         <v>0.46388888888888885</v>
       </c>
       <c r="B13" s="5">
@@ -637,7 +632,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="14">
         <v>0.46527777777777773</v>
       </c>
       <c r="B14" s="5">
@@ -654,7 +649,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="14">
         <v>0.46666666666666662</v>
       </c>
       <c r="B15" s="5">
@@ -671,7 +666,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="14">
         <v>0.4680555555555555</v>
       </c>
       <c r="B16" s="5">
@@ -688,7 +683,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="14">
         <v>0.4694444444444445</v>
       </c>
       <c r="B17" s="5">
@@ -705,7 +700,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="14">
         <v>0.47083333333333338</v>
       </c>
       <c r="B18" s="5">
@@ -722,7 +717,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="14">
         <v>0.47222222222222227</v>
       </c>
       <c r="B19" s="5">
@@ -739,7 +734,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="14">
         <v>0.47361111111111115</v>
       </c>
       <c r="B20" s="5">
@@ -756,7 +751,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="14">
         <v>0.47500000000000003</v>
       </c>
       <c r="B21" s="5">
@@ -773,7 +768,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="14">
         <v>0.47638888888888892</v>
       </c>
       <c r="B22" s="5">
@@ -790,7 +785,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="14">
         <v>0.4777777777777778</v>
       </c>
       <c r="B23" s="5">
@@ -807,7 +802,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="14">
         <v>0.47916666666666669</v>
       </c>
       <c r="B24" s="5">
@@ -824,7 +819,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="14">
         <v>0.48055555555555557</v>
       </c>
       <c r="B25" s="5">
@@ -841,7 +836,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="14">
         <v>0.48194444444444445</v>
       </c>
       <c r="B26" s="5">
@@ -858,7 +853,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="14">
         <v>0.48333333333333334</v>
       </c>
       <c r="B27" s="5">
@@ -875,7 +870,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="14">
         <v>0.48472222222222222</v>
       </c>
       <c r="B28" s="5">
@@ -892,7 +887,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="14">
         <v>0.4861111111111111</v>
       </c>
       <c r="B29" s="5">
@@ -909,7 +904,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="14">
         <v>0.48749999999999999</v>
       </c>
       <c r="B30" s="5">
@@ -926,7 +921,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="14">
         <v>0.48888888888888887</v>
       </c>
       <c r="B31" s="5">
@@ -943,7 +938,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="14">
         <v>0.49027777777777781</v>
       </c>
       <c r="B32" s="5">
@@ -960,7 +955,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="14">
         <v>0.4916666666666667</v>
       </c>
       <c r="B33" s="5">
@@ -978,16 +973,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>20</v>
+      <c r="A35" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>1410</v>
       </c>
     </row>
@@ -1002,20 +997,20 @@
         <v>5</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="14">
         <v>0.49305555555555558</v>
       </c>
       <c r="B38" s="5">
@@ -1025,12 +1020,11 @@
         <v>-16</v>
       </c>
       <c r="E38">
-        <f>D38</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="14">
         <v>0.49444444444444446</v>
       </c>
       <c r="B39" s="5">
@@ -1041,172 +1035,161 @@
         <v>-14</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E54" si="0">D39</f>
-        <v>-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="14">
         <v>0.49583333333333335</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D49" si="1">D39+2</f>
+        <f t="shared" ref="D40:D49" si="0">D39+2</f>
         <v>-12</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="14">
         <v>0.49722222222222223</v>
       </c>
       <c r="B41" s="5">
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="E41">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="14">
         <v>0.49861111111111112</v>
       </c>
       <c r="B42" s="5">
         <v>10</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="E42">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="14">
         <v>0.5</v>
       </c>
       <c r="B43" s="5">
         <v>10</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="E43">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="14">
         <v>0.50555555555555554</v>
       </c>
       <c r="B44" s="5">
         <v>10</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="E44">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="14">
         <v>0.50694444444444442</v>
       </c>
       <c r="B45" s="5">
         <v>10</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="E45">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="14">
         <v>0.5083333333333333</v>
       </c>
       <c r="B46" s="5">
         <v>10</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="14">
         <v>0.50972222222222219</v>
       </c>
       <c r="B47" s="5">
         <v>10</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="14">
         <v>0.51111111111111118</v>
       </c>
       <c r="B48" s="5">
         <v>10</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
         <v>0.51250000000000007</v>
       </c>
       <c r="B49" s="5">
         <v>10</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
         <v>0.51388888888888895</v>
       </c>
       <c r="B50" s="5">
@@ -1217,60 +1200,56 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
         <v>0.51527777777777783</v>
       </c>
       <c r="B51" s="5">
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D53" si="2">D50+2</f>
+        <f t="shared" ref="D51:D53" si="1">D50+2</f>
         <v>10</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
         <v>0.51666666666666672</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
         <v>0.5180555555555556</v>
       </c>
       <c r="B53" s="5">
         <v>10</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
         <v>0.51944444444444449</v>
       </c>
       <c r="B54" s="5">
@@ -1281,622 +1260,838 @@
         <v>16</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B55" s="5">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="B56" s="5">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>E55+2</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="B57" s="5">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E66" si="2">E56+2</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B58" s="5">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="B59" s="5">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="B60" s="5">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="B61" s="5">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="B62" s="5">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="B63" s="5">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="B64" s="5">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="B65" s="5">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="B66" s="5">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="B67" s="5">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>E66+2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="B68" s="5">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E70" si="3">E67+2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="B69" s="5">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B70" s="5">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="B71" s="5">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>E70+2</f>
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>84</v>
-      </c>
-      <c r="B59" s="5">
-        <v>235</v>
-      </c>
-      <c r="C59" s="5">
-        <v>73</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>84</v>
-      </c>
-      <c r="B60" s="5">
-        <v>236</v>
-      </c>
-      <c r="C60" s="5">
-        <v>72</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0.32777777777777778</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>84</v>
-      </c>
-      <c r="B61" s="5">
-        <v>237</v>
-      </c>
-      <c r="C61" s="5">
-        <v>72</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>84</v>
-      </c>
-      <c r="B62" s="5">
-        <v>238</v>
-      </c>
-      <c r="C62" s="5">
-        <v>72</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0.33194444444444443</v>
-      </c>
-      <c r="E62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>84</v>
-      </c>
-      <c r="B63" s="5">
-        <v>243</v>
-      </c>
-      <c r="C63" s="5">
-        <v>70</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>84</v>
-      </c>
-      <c r="B64" s="5">
-        <v>245</v>
-      </c>
-      <c r="C64" s="5">
-        <v>70</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="E64">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>33</v>
-      </c>
-      <c r="B68" s="5">
-        <v>221</v>
-      </c>
-      <c r="C68" s="5">
-        <v>26</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="E68">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>38</v>
-      </c>
-      <c r="B69" s="5">
-        <v>219</v>
-      </c>
-      <c r="C69" s="5">
-        <v>30</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="E69">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>43</v>
-      </c>
-      <c r="B70" s="5">
-        <v>222</v>
-      </c>
-      <c r="C70" s="5">
-        <v>35</v>
-      </c>
-      <c r="D70" s="4">
-        <v>0.29930555555555555</v>
-      </c>
-      <c r="E70">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <f>A70+5</f>
-        <v>48</v>
-      </c>
-      <c r="B71" s="5">
-        <v>220</v>
-      </c>
-      <c r="C71" s="5">
-        <v>39</v>
-      </c>
-      <c r="D71" s="4">
-        <v>0.30138888888888887</v>
-      </c>
-      <c r="E71">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <f t="shared" ref="A72:A84" si="3">A71+5</f>
-        <v>53</v>
-      </c>
-      <c r="B72" s="5">
-        <v>221</v>
-      </c>
-      <c r="C72" s="5">
-        <v>44</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0.3034722222222222</v>
-      </c>
-      <c r="E72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B73" s="5">
-        <v>222</v>
-      </c>
-      <c r="C73" s="5">
-        <v>49</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="E73">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="B74" s="5">
-        <v>222</v>
-      </c>
-      <c r="C74" s="5">
-        <v>54</v>
-      </c>
-      <c r="D74" s="4">
-        <v>0.30763888888888891</v>
-      </c>
-      <c r="E74">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="B75" s="5">
-        <v>222</v>
-      </c>
-      <c r="C75" s="5">
-        <v>59</v>
-      </c>
-      <c r="D75" s="4">
-        <v>0.30972222222222223</v>
-      </c>
-      <c r="E75">
-        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B76" s="5">
+        <v>235</v>
+      </c>
+      <c r="C76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="5">
-        <v>221</v>
-      </c>
-      <c r="C76" s="5">
-        <v>64</v>
-      </c>
-      <c r="D76" s="4">
-        <v>0.31180555555555556</v>
+      <c r="D76" s="14">
+        <v>0.3263888888888889</v>
       </c>
       <c r="E76">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77" s="5">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C77" s="5">
-        <v>68</v>
-      </c>
-      <c r="D77" s="4">
-        <v>0.31388888888888888</v>
+        <v>72</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0.32777777777777778</v>
       </c>
       <c r="E77">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="5">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C78" s="5">
         <v>72</v>
       </c>
-      <c r="D78" s="4">
-        <v>0.31597222222222221</v>
+      <c r="D78" s="14">
+        <v>0.3298611111111111</v>
       </c>
       <c r="E78">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="3"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B79" s="5">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C79" s="5">
-        <v>77</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0.31805555555555554</v>
+        <v>72</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0.33194444444444443</v>
       </c>
       <c r="E79">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B80" s="5">
+        <v>243</v>
+      </c>
+      <c r="C80" s="5">
+        <v>70</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>84</v>
+      </c>
+      <c r="B81" s="5">
+        <v>245</v>
+      </c>
+      <c r="C81" s="5">
+        <v>70</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0.34375</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>33</v>
+      </c>
+      <c r="B85" s="5">
+        <v>221</v>
+      </c>
+      <c r="C85" s="5">
+        <v>26</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E85">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>38</v>
+      </c>
+      <c r="B86" s="13">
+        <v>219</v>
+      </c>
+      <c r="C86" s="13">
+        <v>30</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>43</v>
+      </c>
+      <c r="B87" s="13">
+        <v>222</v>
+      </c>
+      <c r="C87" s="13">
+        <v>35</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <f>A87+5</f>
+        <v>48</v>
+      </c>
+      <c r="B88" s="13">
+        <v>220</v>
+      </c>
+      <c r="C88" s="13">
+        <v>39</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <f t="shared" ref="A89:A99" si="4">A88+5</f>
+        <v>53</v>
+      </c>
+      <c r="B89" s="13">
+        <v>221</v>
+      </c>
+      <c r="C89" s="13">
+        <v>44</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B90" s="13">
+        <v>222</v>
+      </c>
+      <c r="C90" s="13">
+        <v>49</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B91" s="13">
+        <v>222</v>
+      </c>
+      <c r="C91" s="13">
+        <v>54</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B92" s="13">
+        <v>222</v>
+      </c>
+      <c r="C92" s="13">
+        <v>59</v>
+      </c>
+      <c r="D92" s="14"/>
+      <c r="E92" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B93" s="13">
+        <v>221</v>
+      </c>
+      <c r="C93" s="13">
+        <v>64</v>
+      </c>
+      <c r="D93" s="14"/>
+      <c r="E93" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="B94" s="13">
+        <v>221</v>
+      </c>
+      <c r="C94" s="13">
+        <v>68</v>
+      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B95" s="13">
+        <v>220</v>
+      </c>
+      <c r="C95" s="13">
+        <v>72</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B96" s="13">
+        <v>219</v>
+      </c>
+      <c r="C96" s="13">
+        <v>77</v>
+      </c>
+      <c r="D96" s="14"/>
+      <c r="E96" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B97" s="13">
         <v>214</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C97" s="13">
         <v>82</v>
       </c>
-      <c r="D80" s="4">
-        <v>0.32013888888888892</v>
-      </c>
-      <c r="E80">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <f t="shared" si="3"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B98" s="13">
         <v>197</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C98" s="13">
         <v>86</v>
       </c>
-      <c r="D81" s="4">
-        <v>0.32222222222222224</v>
-      </c>
-      <c r="E81">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <f t="shared" si="3"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B99" s="5">
         <v>187</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C99" s="5">
         <v>89</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D99" s="4">
         <v>0.33680555555555558</v>
       </c>
-      <c r="E82">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <f>A82+10</f>
+      <c r="E99">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>A99+10</f>
         <v>113</v>
       </c>
-      <c r="B83" s="5">
-        <v>0</v>
-      </c>
-      <c r="C83" s="5">
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
         <v>86</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D100" s="4">
         <v>0.38472222222222219</v>
       </c>
-      <c r="E83">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <f t="shared" ref="A84:A92" si="4">A83+10</f>
+      <c r="E100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" ref="A101:A109" si="5">A100+10</f>
         <v>123</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B101" s="7">
         <v>359</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C101" s="5">
         <v>84</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D101" s="4">
         <v>0.44236111111111115</v>
       </c>
-      <c r="E84">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <f>A84+10</f>
+      <c r="E101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>A101+10</f>
         <v>133</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B102" s="7">
         <v>359</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C102" s="5">
         <v>86</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D102" s="4">
         <v>0.50347222222222221</v>
       </c>
-      <c r="E85">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
-        <f t="shared" si="4"/>
+      <c r="E102">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B103" s="13">
         <v>98</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C103" s="13">
         <v>84</v>
       </c>
-      <c r="D86" s="15">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="E86" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="13">
-        <f t="shared" si="4"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="B87" s="14">
+      <c r="B104" s="13">
         <v>108</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C104" s="13">
         <v>75</v>
       </c>
-      <c r="D87" s="15">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="E87" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
-        <f t="shared" si="4"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B105" s="13">
         <v>114</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C105" s="13">
         <v>66</v>
       </c>
-      <c r="D88" s="15">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="E88" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="13">
-        <f t="shared" si="4"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B106" s="13">
         <v>115</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C106" s="13">
         <v>56</v>
       </c>
-      <c r="D89" s="15">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="E89" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
-        <f t="shared" si="4"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B107" s="13">
         <v>116</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C107" s="13">
         <v>46</v>
       </c>
-      <c r="D90" s="15">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="E90" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="13">
-        <f>A90+10</f>
+      <c r="D107" s="14"/>
+      <c r="E107" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <f>A107+10</f>
         <v>193</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B108" s="13">
         <v>117</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C108" s="13">
         <v>36</v>
       </c>
-      <c r="D91" s="15">
-        <v>0.53263888888888888</v>
-      </c>
-      <c r="E91" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
-        <f t="shared" si="4"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="12">
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B109" s="13">
         <v>118</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C109" s="13">
         <v>27</v>
       </c>
-      <c r="D92" s="15">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E92" s="13">
+      <c r="D109" s="14"/>
+      <c r="E109" s="12">
         <v>45</v>
       </c>
     </row>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA719E9-0CBA-44C8-BE42-DB72E376797E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BF379F-012E-4924-9976-EE17E3611039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12270" yWindow="3983" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Dateiname</t>
   </si>
   <si>
-    <t>HK-Az</t>
-  </si>
-  <si>
     <t>GK (b=0) l</t>
-  </si>
-  <si>
-    <t>HK-Alt</t>
   </si>
   <si>
     <t>Bel.d. in s</t>
@@ -64,12 +58,6 @@
   </si>
   <si>
     <t>Punkt 8</t>
-  </si>
-  <si>
-    <t>(Deneb)</t>
-  </si>
-  <si>
-    <t>GK (b=2) l</t>
   </si>
   <si>
     <t>Punkt 5</t>
@@ -94,6 +82,15 @@
   </si>
   <si>
     <t>Punkt 6</t>
+  </si>
+  <si>
+    <t>GK (b=1) l</t>
+  </si>
+  <si>
+    <t>GK (b=-1) l</t>
+  </si>
+  <si>
+    <t>G. Breite</t>
   </si>
 </sst>
 </file>
@@ -179,7 +176,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -187,9 +183,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,27 +464,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.06640625" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -495,61 +493,59 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="10">
         <v>1410</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>0.45833333333333331</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
       <c r="B9" s="5">
         <v>10</v>
       </c>
@@ -563,10 +559,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>0.4597222222222222</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
       <c r="B10" s="5">
         <v>10</v>
       </c>
@@ -580,10 +574,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>0.46111111111111108</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -597,10 +589,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>0.46249999999999997</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -614,10 +604,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>0.46388888888888885</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -631,10 +619,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>0.46527777777777773</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -648,10 +634,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>0.46666666666666662</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -665,10 +649,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>0.4680555555555555</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
       <c r="B16" s="5">
         <v>10</v>
       </c>
@@ -682,10 +664,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>0.4694444444444445</v>
-      </c>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -699,10 +679,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>0.47083333333333338</v>
-      </c>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="13"/>
       <c r="B18" s="5">
         <v>10</v>
       </c>
@@ -716,10 +694,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>0.47222222222222227</v>
-      </c>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -733,10 +709,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>0.47361111111111115</v>
-      </c>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
       <c r="B20" s="5">
         <v>10</v>
       </c>
@@ -750,10 +724,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>0.47500000000000003</v>
-      </c>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
       <c r="B21" s="5">
         <v>10</v>
       </c>
@@ -767,10 +739,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>0.47638888888888892</v>
-      </c>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="13"/>
       <c r="B22" s="5">
         <v>10</v>
       </c>
@@ -784,10 +754,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>0.4777777777777778</v>
-      </c>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="13"/>
       <c r="B23" s="5">
         <v>10</v>
       </c>
@@ -801,10 +769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>0.47916666666666669</v>
-      </c>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
       <c r="B24" s="5">
         <v>10</v>
       </c>
@@ -818,10 +784,8 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>0.48055555555555557</v>
-      </c>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
       <c r="B25" s="5">
         <v>10</v>
       </c>
@@ -835,10 +799,8 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>0.48194444444444445</v>
-      </c>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
       <c r="B26" s="5">
         <v>10</v>
       </c>
@@ -852,10 +814,8 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>0.48333333333333334</v>
-      </c>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
       <c r="B27" s="5">
         <v>10</v>
       </c>
@@ -869,10 +829,8 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>0.48472222222222222</v>
-      </c>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="13"/>
       <c r="B28" s="5">
         <v>10</v>
       </c>
@@ -886,10 +844,8 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>0.4861111111111111</v>
-      </c>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
       <c r="B29" s="5">
         <v>10</v>
       </c>
@@ -903,10 +859,8 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
-        <v>0.48749999999999999</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="13"/>
       <c r="B30" s="5">
         <v>10</v>
       </c>
@@ -920,10 +874,8 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>0.48888888888888887</v>
-      </c>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
       <c r="B31" s="5">
         <v>10</v>
       </c>
@@ -937,10 +889,8 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
-        <v>0.49027777777777781</v>
-      </c>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="13"/>
       <c r="B32" s="5">
         <v>10</v>
       </c>
@@ -954,10 +904,8 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>0.4916666666666667</v>
-      </c>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="13"/>
       <c r="B33" s="5">
         <v>10</v>
       </c>
@@ -971,48 +919,46 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="10">
         <v>1410</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="13"/>
       <c r="B38" s="5">
         <v>10</v>
       </c>
@@ -1023,10 +969,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
-        <v>0.49444444444444446</v>
-      </c>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="13"/>
       <c r="B39" s="5">
         <v>10</v>
       </c>
@@ -1038,160 +982,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <v>0.49583333333333335</v>
-      </c>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="13"/>
       <c r="B40" s="5">
         <v>10</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D49" si="0">D39+2</f>
+        <f>D39+2</f>
         <v>-12</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>0.49722222222222223</v>
-      </c>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="13"/>
       <c r="B41" s="5">
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f>D40+2</f>
         <v>-10</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
-        <v>0.49861111111111112</v>
-      </c>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="13"/>
       <c r="B42" s="5">
         <v>10</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f>D41+2</f>
         <v>-8</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
-        <v>0.5</v>
-      </c>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="13"/>
       <c r="B43" s="5">
         <v>10</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f>D42+2</f>
         <v>-6</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
-        <v>0.50555555555555554</v>
-      </c>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="13"/>
       <c r="B44" s="5">
         <v>10</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f>D43+2</f>
         <v>-4</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>0.50694444444444442</v>
-      </c>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="13"/>
       <c r="B45" s="5">
         <v>10</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f>D44+2</f>
         <v>-2</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <v>0.5083333333333333</v>
-      </c>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="13"/>
       <c r="B46" s="5">
         <v>10</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f>D45+2</f>
         <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
-        <v>0.50972222222222219</v>
-      </c>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="13"/>
       <c r="B47" s="5">
         <v>10</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f>D46+2</f>
         <v>2</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
-        <v>0.51111111111111118</v>
-      </c>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="13"/>
       <c r="B48" s="5">
         <v>10</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f>D47+2</f>
         <v>4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
-        <v>0.51250000000000007</v>
-      </c>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="13"/>
       <c r="B49" s="5">
         <v>10</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f>D48+2</f>
         <v>6</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
-        <v>0.51388888888888895</v>
-      </c>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="13"/>
       <c r="B50" s="5">
         <v>10</v>
       </c>
@@ -1203,55 +1125,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
-        <v>0.51527777777777783</v>
-      </c>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="13"/>
       <c r="B51" s="5">
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D53" si="1">D50+2</f>
+        <f>D50+2</f>
         <v>10</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
-        <v>0.51666666666666672</v>
-      </c>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="13"/>
       <c r="B52" s="5">
         <v>10</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f>D51+2</f>
         <v>12</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
-        <v>0.5180555555555556</v>
-      </c>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="13"/>
       <c r="B53" s="5">
         <v>10</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f>D52+2</f>
         <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
-        <v>0.51944444444444449</v>
-      </c>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="13"/>
       <c r="B54" s="5">
         <v>10</v>
       </c>
@@ -1263,10 +1177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
-        <v>0.52083333333333337</v>
-      </c>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="13"/>
       <c r="B55" s="5">
         <v>10</v>
       </c>
@@ -1277,10 +1189,8 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
-        <v>0.52222222222222225</v>
-      </c>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="13"/>
       <c r="B56" s="5">
         <v>10</v>
       </c>
@@ -1292,10 +1202,8 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
-        <v>0.52361111111111114</v>
-      </c>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="13"/>
       <c r="B57" s="5">
         <v>10</v>
       </c>
@@ -1303,14 +1211,12 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E66" si="2">E56+2</f>
+        <f>E56+2</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
-        <v>0.52500000000000002</v>
-      </c>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="13"/>
       <c r="B58" s="5">
         <v>10</v>
       </c>
@@ -1318,14 +1224,12 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f>E57+2</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="14">
-        <v>0.52638888888888891</v>
-      </c>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="13"/>
       <c r="B59" s="5">
         <v>10</v>
       </c>
@@ -1333,14 +1237,12 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f>E58+2</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="14">
-        <v>0.52777777777777779</v>
-      </c>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="13"/>
       <c r="B60" s="5">
         <v>10</v>
       </c>
@@ -1348,14 +1250,12 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f>E59+2</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
-        <v>0.52916666666666667</v>
-      </c>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="13"/>
       <c r="B61" s="5">
         <v>10</v>
       </c>
@@ -1363,14 +1263,12 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f>E60+2</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
-        <v>0.53055555555555556</v>
-      </c>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="13"/>
       <c r="B62" s="5">
         <v>10</v>
       </c>
@@ -1378,14 +1276,12 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f>E61+2</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="14">
-        <v>0.53194444444444444</v>
-      </c>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="13"/>
       <c r="B63" s="5">
         <v>10</v>
       </c>
@@ -1393,14 +1289,12 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
-        <v>0.53333333333333333</v>
-      </c>
+        <f>E62+2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="13"/>
       <c r="B64" s="5">
         <v>10</v>
       </c>
@@ -1408,14 +1302,12 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f>E63+2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="14">
-        <v>0.53472222222222221</v>
-      </c>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="13"/>
       <c r="B65" s="5">
         <v>10</v>
       </c>
@@ -1423,14 +1315,12 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f>E64+2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
-        <v>0.53611111111111109</v>
-      </c>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="13"/>
       <c r="B66" s="5">
         <v>10</v>
       </c>
@@ -1438,14 +1328,12 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f>E65+2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="14">
-        <v>0.53749999999999998</v>
-      </c>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="13"/>
       <c r="B67" s="5">
         <v>10</v>
       </c>
@@ -1457,10 +1345,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
-        <v>0.53888888888888886</v>
-      </c>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="13"/>
       <c r="B68" s="5">
         <v>10</v>
       </c>
@@ -1468,14 +1354,12 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E70" si="3">E67+2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
-        <v>0.54027777777777775</v>
-      </c>
+        <f>E67+2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="13"/>
       <c r="B69" s="5">
         <v>10</v>
       </c>
@@ -1483,14 +1367,12 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f>E68+2</f>
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="14">
-        <v>0.54166666666666663</v>
-      </c>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="13"/>
       <c r="B70" s="5">
         <v>10</v>
       </c>
@@ -1498,14 +1380,12 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f>E69+2</f>
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14">
-        <v>0.54305555555555551</v>
-      </c>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="13"/>
       <c r="B71" s="5">
         <v>10</v>
       </c>
@@ -1517,582 +1397,855 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1420.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>84</v>
       </c>
-      <c r="B76" s="5">
-        <v>235</v>
-      </c>
-      <c r="C76" s="5">
-        <v>73</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E76">
+      <c r="B76" s="14">
+        <v>0.24195601851851853</v>
+      </c>
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>84</v>
       </c>
-      <c r="B77" s="5">
-        <v>236</v>
-      </c>
-      <c r="C77" s="5">
-        <v>72</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0.32777777777777778</v>
-      </c>
-      <c r="E77">
+      <c r="B77" s="14">
+        <v>0.24214120370370371</v>
+      </c>
+      <c r="C77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>84</v>
       </c>
-      <c r="B78" s="5">
-        <v>237</v>
-      </c>
-      <c r="C78" s="5">
-        <v>72</v>
-      </c>
-      <c r="D78" s="14">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="14">
+        <v>0.24239583333333334</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>84</v>
       </c>
-      <c r="B79" s="5">
-        <v>238</v>
-      </c>
-      <c r="C79" s="5">
-        <v>72</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0.33194444444444443</v>
-      </c>
-      <c r="E79">
+      <c r="B79" s="14">
+        <v>0.2426736111111111</v>
+      </c>
+      <c r="C79">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>84</v>
       </c>
-      <c r="B80" s="5">
-        <v>243</v>
-      </c>
-      <c r="C80" s="5">
-        <v>70</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="E80">
+      <c r="B80" s="14">
+        <v>0.2434375</v>
+      </c>
+      <c r="C80">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>84</v>
       </c>
-      <c r="B81" s="5">
-        <v>245</v>
-      </c>
-      <c r="C81" s="5">
-        <v>70</v>
-      </c>
-      <c r="D81" s="14">
-        <v>0.34375</v>
-      </c>
-      <c r="E81">
+      <c r="B81" s="14">
+        <v>0.24484953703703705</v>
+      </c>
+      <c r="C81">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D84" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>33</v>
       </c>
-      <c r="B85" s="5">
-        <v>221</v>
-      </c>
-      <c r="C85" s="5">
-        <v>26</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="E85">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
+      <c r="B85" s="14">
+        <v>0.21031250000000001</v>
+      </c>
+      <c r="C85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>38</v>
       </c>
-      <c r="B86" s="13">
-        <v>219</v>
-      </c>
-      <c r="C86" s="13">
-        <v>30</v>
-      </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="12">
+      <c r="B86" s="14">
+        <v>0.2132523148148148</v>
+      </c>
+      <c r="C86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
         <v>43</v>
       </c>
-      <c r="B87" s="13">
-        <v>222</v>
-      </c>
-      <c r="C87" s="13">
-        <v>35</v>
-      </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
+      <c r="B87" s="14">
+        <v>0.21461805555555555</v>
+      </c>
+      <c r="C87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88">
         <f>A87+5</f>
         <v>48</v>
       </c>
-      <c r="B88" s="13">
-        <v>220</v>
-      </c>
-      <c r="C88" s="13">
-        <v>39</v>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
-        <f t="shared" ref="A89:A99" si="4">A88+5</f>
+      <c r="B88" s="14">
+        <v>0.21581018518518516</v>
+      </c>
+      <c r="C88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <f t="shared" ref="A89:A99" si="0">A88+5</f>
         <v>53</v>
       </c>
-      <c r="B89" s="13">
-        <v>221</v>
-      </c>
-      <c r="C89" s="13">
-        <v>44</v>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="12">
-        <f t="shared" si="4"/>
+      <c r="B89" s="14">
+        <v>0.21711805555555555</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B90" s="13">
-        <v>222</v>
-      </c>
-      <c r="C90" s="13">
-        <v>49</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="12">
-        <f t="shared" si="4"/>
+      <c r="B90" s="14">
+        <v>0.2182638888888889</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B91" s="13">
-        <v>222</v>
-      </c>
-      <c r="C91" s="13">
-        <v>54</v>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="12">
-        <f t="shared" si="4"/>
+      <c r="B91" s="14">
+        <v>0.21937499999999999</v>
+      </c>
+      <c r="C91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B92" s="13">
-        <v>222</v>
-      </c>
-      <c r="C92" s="13">
-        <v>59</v>
-      </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="12">
-        <f t="shared" si="4"/>
+      <c r="B92" s="14">
+        <v>0.22052083333333336</v>
+      </c>
+      <c r="C92">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <f>A92+5</f>
         <v>73</v>
       </c>
-      <c r="B93" s="13">
-        <v>221</v>
-      </c>
-      <c r="C93" s="13">
-        <v>64</v>
-      </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
-        <f t="shared" si="4"/>
+      <c r="B93" s="14">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="C93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B94" s="13">
-        <v>221</v>
-      </c>
-      <c r="C94" s="13">
-        <v>68</v>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
-        <f t="shared" si="4"/>
+      <c r="B94" s="14">
+        <v>0.22555555555555554</v>
+      </c>
+      <c r="C94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B95" s="13">
-        <v>220</v>
-      </c>
-      <c r="C95" s="13">
-        <v>72</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="12">
-        <f t="shared" si="4"/>
+      <c r="B95" s="14">
+        <v>0.2268287037037037</v>
+      </c>
+      <c r="C95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="B96" s="13">
-        <v>219</v>
-      </c>
-      <c r="C96" s="13">
-        <v>77</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="12">
-        <f t="shared" si="4"/>
+      <c r="B96" s="14">
+        <v>0.2290972222222222</v>
+      </c>
+      <c r="C96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <f>A96+5</f>
         <v>93</v>
       </c>
-      <c r="B97" s="13">
-        <v>214</v>
-      </c>
-      <c r="C97" s="13">
-        <v>82</v>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="12">
-        <f t="shared" si="4"/>
+      <c r="B97" s="14">
+        <v>0.23594907407407406</v>
+      </c>
+      <c r="C97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="B98" s="13">
-        <v>197</v>
-      </c>
-      <c r="C98" s="13">
-        <v>86</v>
-      </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="14">
+        <v>0.23824074074074075</v>
+      </c>
+      <c r="C98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="B99" s="5">
-        <v>187</v>
-      </c>
-      <c r="C99" s="5">
-        <v>89</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="E99">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="14">
+        <v>0.23997685185185183</v>
+      </c>
+      <c r="C99">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>A99+10</f>
         <v>113</v>
       </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100" s="5">
-        <v>86</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0.38472222222222219</v>
-      </c>
-      <c r="E100">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="14">
+        <v>0.24944444444444444</v>
+      </c>
+      <c r="C100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
-        <f t="shared" ref="A101:A109" si="5">A100+10</f>
+        <f t="shared" ref="A101:A109" si="1">A100+10</f>
         <v>123</v>
       </c>
-      <c r="B101" s="7">
-        <v>359</v>
-      </c>
-      <c r="C101" s="5">
-        <v>84</v>
-      </c>
-      <c r="D101" s="4">
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="E101">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="14">
+        <v>0.25062499999999999</v>
+      </c>
+      <c r="C101">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <f>A101+10</f>
         <v>133</v>
       </c>
-      <c r="B102" s="7">
-        <v>359</v>
-      </c>
-      <c r="C102" s="5">
-        <v>86</v>
-      </c>
-      <c r="D102" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E102">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="12">
-        <f t="shared" si="5"/>
+      <c r="B102" s="14">
+        <v>0.25166666666666665</v>
+      </c>
+      <c r="C102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="B103" s="13">
-        <v>98</v>
-      </c>
-      <c r="C103" s="13">
-        <v>84</v>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="12">
-        <f t="shared" si="5"/>
+      <c r="B103" s="14">
+        <v>0.25284722222222222</v>
+      </c>
+      <c r="C103">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="B104" s="13">
-        <v>108</v>
-      </c>
-      <c r="C104" s="13">
-        <v>75</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="12">
-        <f t="shared" si="5"/>
+      <c r="B104" s="14">
+        <v>0.25415509259259256</v>
+      </c>
+      <c r="C104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="B105" s="13">
-        <v>114</v>
-      </c>
-      <c r="C105" s="13">
-        <v>66</v>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="12">
-        <f t="shared" si="5"/>
+      <c r="B105" s="14">
+        <v>0.25556712962962963</v>
+      </c>
+      <c r="C105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="B106" s="13">
-        <v>115</v>
-      </c>
-      <c r="C106" s="13">
-        <v>56</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="12">
-        <f t="shared" si="5"/>
+      <c r="B106" s="14">
+        <v>0.25745370370370368</v>
+      </c>
+      <c r="C106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="B107" s="13">
-        <v>116</v>
-      </c>
-      <c r="C107" s="13">
-        <v>46</v>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="12">
+      <c r="B107" s="13"/>
+      <c r="C107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108">
         <f>A107+10</f>
         <v>193</v>
       </c>
-      <c r="B108" s="13">
-        <v>117</v>
-      </c>
-      <c r="C108" s="13">
-        <v>36</v>
-      </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="12">
-        <f t="shared" si="5"/>
+      <c r="B108" s="13"/>
+      <c r="C108">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="B109" s="13">
-        <v>118</v>
-      </c>
-      <c r="C109" s="13">
-        <v>27</v>
-      </c>
-      <c r="D109" s="14"/>
-      <c r="E109" s="12">
-        <v>45</v>
+      <c r="B109" s="13"/>
+      <c r="C109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>38</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="14">
+        <v>0.26134259259259257</v>
+      </c>
+      <c r="D113">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" s="14">
+        <v>0.26368055555555553</v>
+      </c>
+      <c r="D114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>43</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="14">
+        <v>0.26739583333333333</v>
+      </c>
+      <c r="D115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <f>A115+5</f>
+        <v>48</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="14">
+        <v>0.26971064814814816</v>
+      </c>
+      <c r="D116">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <f t="shared" ref="A117:A125" si="2">A116+5</f>
+        <v>53</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="14">
+        <v>0.27203703703703702</v>
+      </c>
+      <c r="D117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="14">
+        <v>0.27429398148148149</v>
+      </c>
+      <c r="D118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="14">
+        <v>0.27711805555555552</v>
+      </c>
+      <c r="D119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="14">
+        <v>0.22165509259259261</v>
+      </c>
+      <c r="D120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <f>A120+5</f>
+        <v>73</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="14">
+        <v>0.27969907407407407</v>
+      </c>
+      <c r="D121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>73</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" s="14">
+        <v>0.28221064814814817</v>
+      </c>
+      <c r="D122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <f>A121+5</f>
+        <v>78</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="14">
+        <v>0.28638888888888886</v>
+      </c>
+      <c r="D123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" s="14">
+        <v>0.28886574074074073</v>
+      </c>
+      <c r="D124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="14">
+        <v>0.23299768518518518</v>
+      </c>
+      <c r="D125">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>88</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" s="14">
+        <v>0.29135416666666664</v>
+      </c>
+      <c r="D126">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>38</v>
+      </c>
+      <c r="B129">
+        <v>-1</v>
+      </c>
+      <c r="C129" s="14">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="D129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>43</v>
+      </c>
+      <c r="B130">
+        <v>-1</v>
+      </c>
+      <c r="C130" s="14">
+        <v>0.26850694444444445</v>
+      </c>
+      <c r="D130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <f>A130+5</f>
+        <v>48</v>
+      </c>
+      <c r="B131">
+        <v>-1</v>
+      </c>
+      <c r="C131" s="14">
+        <v>0.27074074074074073</v>
+      </c>
+      <c r="D131">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <f t="shared" ref="A132:A140" si="3">A131+5</f>
+        <v>53</v>
+      </c>
+      <c r="B132">
+        <v>-1</v>
+      </c>
+      <c r="C132" s="14">
+        <v>0.2729861111111111</v>
+      </c>
+      <c r="D132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B133">
+        <v>-1</v>
+      </c>
+      <c r="C133" s="14">
+        <v>0.27564814814814814</v>
+      </c>
+      <c r="D133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B134">
+        <v>-1</v>
+      </c>
+      <c r="C134" s="14">
+        <v>0.27833333333333332</v>
+      </c>
+      <c r="D134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B135">
+        <v>-1</v>
+      </c>
+      <c r="C135" s="14">
+        <v>0.22283564814814816</v>
+      </c>
+      <c r="D135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <f>A135+5</f>
+        <v>73</v>
+      </c>
+      <c r="B136">
+        <v>-1</v>
+      </c>
+      <c r="C136" s="14">
+        <v>0.28097222222222223</v>
+      </c>
+      <c r="D136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>73</v>
+      </c>
+      <c r="B137">
+        <v>-2</v>
+      </c>
+      <c r="C137" s="14">
+        <v>0.28427083333333331</v>
+      </c>
+      <c r="D137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <f>A136+5</f>
+        <v>78</v>
+      </c>
+      <c r="B138">
+        <v>-2</v>
+      </c>
+      <c r="C138" s="14">
+        <v>0.28751157407407407</v>
+      </c>
+      <c r="D138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B139">
+        <v>-2</v>
+      </c>
+      <c r="C139" s="14">
+        <v>0.29001157407407407</v>
+      </c>
+      <c r="D139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B140">
+        <v>-1</v>
+      </c>
+      <c r="C140" s="14">
+        <v>0.23432870370370371</v>
+      </c>
+      <c r="D140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>88</v>
+      </c>
+      <c r="B141">
+        <v>-2</v>
+      </c>
+      <c r="C141" s="14">
+        <v>0.29252314814814812</v>
+      </c>
+      <c r="D141">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD394C-BBFE-4684-8F30-1D224EF04278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05ED70-8F51-4F0F-8D9B-2AFD3B1C756A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10395" yWindow="4650" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>GK Breite</t>
+  </si>
+  <si>
+    <t>S_Kreuz_Az+16Al00</t>
+  </si>
+  <si>
+    <t>S_Kreuz_Az+00Al-16</t>
+  </si>
+  <si>
+    <t>Saz-10Al10</t>
+  </si>
+  <si>
+    <t>M_Bel1s_l84_b0</t>
+  </si>
+  <si>
+    <t>Ml33b0</t>
+  </si>
+  <si>
+    <t>Ml33b1</t>
+  </si>
+  <si>
+    <t>Ml38b-1</t>
   </si>
 </sst>
 </file>
@@ -157,23 +178,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -489,51 +515,51 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>1410</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>0.35391203703703705</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>10</v>
       </c>
       <c r="D9">
@@ -542,12 +568,15 @@
       <c r="E9">
         <v>10</v>
       </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>0.35440972222222222</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>10</v>
       </c>
       <c r="D10">
@@ -558,10 +587,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>0.35487268518518517</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
       <c r="D11">
@@ -572,10 +601,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>0.3552777777777778</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="D12">
@@ -586,10 +615,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>0.35570601851851852</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="D13">
@@ -600,10 +629,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>0.3562731481481482</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="D14">
@@ -614,10 +643,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>0.35671296296296301</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
       <c r="D15">
@@ -628,10 +657,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>0.35741898148148149</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>10</v>
       </c>
       <c r="D16">
@@ -642,10 +671,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>0.3578587962962963</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
       <c r="D17">
@@ -656,10 +685,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>0.35844907407407406</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>10</v>
       </c>
       <c r="D18">
@@ -670,10 +699,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>0.35903935185185182</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>10</v>
       </c>
       <c r="D19">
@@ -684,10 +713,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>0.35951388888888891</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
       <c r="D20">
@@ -698,10 +727,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>0.36000000000000004</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>10</v>
       </c>
       <c r="D21">
@@ -712,10 +741,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>0.3605902777777778</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>10</v>
       </c>
       <c r="D22">
@@ -726,10 +755,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>0.36108796296296292</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>10</v>
       </c>
       <c r="D23">
@@ -740,10 +769,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>0.36185185185185187</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>10</v>
       </c>
       <c r="D24">
@@ -754,10 +783,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>0.36234953703703704</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>10</v>
       </c>
       <c r="D25">
@@ -768,10 +797,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>0.3628703703703704</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>10</v>
       </c>
       <c r="D26">
@@ -782,10 +811,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>0.36346064814814816</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>10</v>
       </c>
       <c r="D27">
@@ -796,10 +825,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="13">
+      <c r="A28" s="9">
         <v>0.36398148148148146</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>10</v>
       </c>
       <c r="D28">
@@ -810,10 +839,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>0.36464120370370368</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>10</v>
       </c>
       <c r="D29">
@@ -824,10 +853,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="13">
+      <c r="A30" s="9">
         <v>0.36515046296296294</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>10</v>
       </c>
       <c r="D30">
@@ -838,10 +867,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>0.3656712962962963</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>10</v>
       </c>
       <c r="D31">
@@ -852,10 +881,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="13">
+      <c r="A32" s="9">
         <v>0.3661342592592593</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>10</v>
       </c>
       <c r="D32">
@@ -866,10 +895,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="13">
+      <c r="A33" s="9">
         <v>0.36663194444444441</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>10</v>
       </c>
       <c r="D33">
@@ -880,50 +909,50 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="10">
+      <c r="A37" s="8">
         <v>1410</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>0.36813657407407407</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>10</v>
       </c>
       <c r="D39">
@@ -932,12 +961,15 @@
       <c r="E39">
         <v>-16</v>
       </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="13">
+      <c r="A40" s="9">
         <v>0.36921296296296297</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>10</v>
       </c>
       <c r="D40">
@@ -949,10 +981,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="13">
+      <c r="A41" s="9">
         <v>0.36958333333333332</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>10</v>
       </c>
       <c r="D41">
@@ -964,10 +996,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="13">
+      <c r="A42" s="9">
         <v>0.36994212962962963</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>10</v>
       </c>
       <c r="D42">
@@ -979,10 +1011,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="13">
+      <c r="A43" s="9">
         <v>0.37041666666666667</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>10</v>
       </c>
       <c r="D43">
@@ -994,10 +1026,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="13">
+      <c r="A44" s="9">
         <v>0.3707523148148148</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>10</v>
       </c>
       <c r="D44">
@@ -1009,10 +1041,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="13">
+      <c r="A45" s="9">
         <v>0.37123842592592587</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>10</v>
       </c>
       <c r="D45">
@@ -1024,10 +1056,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="13">
+      <c r="A46" s="9">
         <v>0.37170138888888887</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>10</v>
       </c>
       <c r="D46">
@@ -1039,10 +1071,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="13">
+      <c r="A47" s="9">
         <v>0.37208333333333332</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>10</v>
       </c>
       <c r="D47">
@@ -1054,10 +1086,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="13">
+      <c r="A48" s="9">
         <v>0.37248842592592596</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>10</v>
       </c>
       <c r="D48">
@@ -1069,10 +1101,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>0.37283564814814812</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>10</v>
       </c>
       <c r="D49">
@@ -1084,10 +1116,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="13">
+      <c r="A50" s="9">
         <v>0.37321759259259263</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>10</v>
       </c>
       <c r="D50">
@@ -1099,10 +1131,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="13">
+      <c r="A51" s="9">
         <v>0.37354166666666666</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>10</v>
       </c>
       <c r="D51">
@@ -1114,10 +1146,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="13">
+      <c r="A52" s="9">
         <v>0.3739467592592593</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>10</v>
       </c>
       <c r="D52">
@@ -1129,10 +1161,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="13">
+      <c r="A53" s="9">
         <v>0.37436342592592592</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>10</v>
       </c>
       <c r="D53">
@@ -1144,10 +1176,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="13">
+      <c r="A54" s="9">
         <v>0.3747685185185185</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>10</v>
       </c>
       <c r="D54">
@@ -1159,10 +1191,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="13">
+      <c r="A55" s="9">
         <v>0.37513888888888891</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>10</v>
       </c>
       <c r="D55">
@@ -1174,10 +1206,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="13">
+      <c r="A56" s="9">
         <v>0.37572916666666667</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>10</v>
       </c>
       <c r="D56">
@@ -1186,13 +1218,16 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="13">
+      <c r="A57" s="9">
         <v>0.37606481481481485</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>10</v>
       </c>
       <c r="D57">
@@ -1202,13 +1237,13 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="13">
+      <c r="A58" s="9">
         <v>0.37643518518518521</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>10</v>
       </c>
       <c r="D58">
@@ -1218,13 +1253,13 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="13">
+      <c r="A59" s="9">
         <v>0.37680555555555556</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>10</v>
       </c>
       <c r="D59">
@@ -1234,13 +1269,13 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="G59" s="13"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="13">
+      <c r="A60" s="9">
         <v>0.37731481481481483</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>10</v>
       </c>
       <c r="D60">
@@ -1250,13 +1285,13 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="13">
+      <c r="A61" s="9">
         <v>0.37783564814814818</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>10</v>
       </c>
       <c r="D61">
@@ -1266,13 +1301,13 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>0.37820601851851854</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>10</v>
       </c>
       <c r="D62">
@@ -1282,13 +1317,13 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="G62" s="13"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>0.3785648148148148</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>10</v>
       </c>
       <c r="D63">
@@ -1298,13 +1333,13 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>0.3790162037037037</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>10</v>
       </c>
       <c r="D64">
@@ -1314,13 +1349,13 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>0.37952546296296297</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>10</v>
       </c>
       <c r="D65">
@@ -1330,13 +1365,13 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="G65" s="13"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>0.37996527777777778</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>10</v>
       </c>
       <c r="D66">
@@ -1346,13 +1381,13 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="G66" s="13"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>0.38030092592592596</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>10</v>
       </c>
       <c r="D67">
@@ -1362,13 +1397,13 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="G67" s="13"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>0.38081018518518522</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>10</v>
       </c>
       <c r="D68">
@@ -1378,13 +1413,13 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="G68" s="13"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>0.38122685185185184</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>10</v>
       </c>
       <c r="D69">
@@ -1394,13 +1429,13 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="G69" s="13"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>0.38184027777777779</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>10</v>
       </c>
       <c r="D70">
@@ -1410,13 +1445,13 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="G70" s="13"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="13">
+      <c r="A71" s="9">
         <v>0.38221064814814815</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>10</v>
       </c>
       <c r="D71">
@@ -1426,13 +1461,13 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="G71" s="13"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="13">
+      <c r="A72" s="9">
         <v>0.3825810185185185</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>10</v>
       </c>
       <c r="D72">
@@ -1442,864 +1477,1082 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="G72" s="13"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B73" s="5"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="10">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12">
         <v>1420.4</v>
       </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77">
+      <c r="A77" s="11">
         <v>84</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="14">
         <v>0.24195601851851853</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="11">
         <v>1</v>
       </c>
+      <c r="D77" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78">
+      <c r="A78" s="11">
         <v>84</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="14">
         <v>0.24214120370370371</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="11">
         <v>3</v>
       </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79">
+      <c r="A79" s="11">
         <v>84</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="14">
         <v>0.24239583333333334</v>
       </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
+      <c r="C79" s="11">
+        <v>10</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80">
+      <c r="A80" s="11">
         <v>84</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="14">
         <v>0.2426736111111111</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="11">
         <v>84</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="14">
         <v>0.2434375</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="11">
         <v>84</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="14">
         <v>0.24484953703703705</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="11">
         <v>300</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" s="6" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="11"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="6" t="s">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86">
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="11">
         <v>33</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="14">
         <v>0.21031250000000001</v>
       </c>
-      <c r="C86">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87">
+      <c r="C86" s="11">
+        <v>60</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="11">
         <v>38</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="14">
         <v>0.2132523148148148</v>
       </c>
-      <c r="C87">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88">
+      <c r="C87" s="11">
+        <v>60</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="11">
         <v>43</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="14">
         <v>0.21461805555555555</v>
       </c>
-      <c r="C88">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89">
+      <c r="C88" s="11">
+        <v>60</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="11">
         <f>A88+5</f>
         <v>48</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="14">
         <v>0.21581018518518516</v>
       </c>
-      <c r="C89">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90">
+      <c r="C89" s="11">
+        <v>60</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="11">
         <f t="shared" ref="A90:A100" si="2">A89+5</f>
         <v>53</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="14">
         <v>0.21711805555555555</v>
       </c>
-      <c r="C90">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91">
+      <c r="C90" s="11">
+        <v>60</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="14">
         <v>0.2182638888888889</v>
       </c>
-      <c r="C91">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92">
+      <c r="C91" s="11">
+        <v>60</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="14">
         <v>0.21937499999999999</v>
       </c>
-      <c r="C92">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93">
+      <c r="C92" s="11">
+        <v>60</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="14">
         <v>0.22052083333333336</v>
       </c>
-      <c r="C93">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94">
+      <c r="C93" s="11">
+        <v>60</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="11">
         <f>A93+5</f>
         <v>73</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="14">
         <v>0.22430555555555556</v>
       </c>
-      <c r="C94">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95">
+      <c r="C94" s="11">
+        <v>60</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="14">
         <v>0.22555555555555554</v>
       </c>
-      <c r="C95">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96">
+      <c r="C95" s="11">
+        <v>60</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="14">
         <v>0.2268287037037037</v>
       </c>
-      <c r="C96">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97">
+      <c r="C96" s="11">
+        <v>60</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="14">
         <v>0.2290972222222222</v>
       </c>
-      <c r="C97">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98">
+      <c r="C97" s="11">
+        <v>60</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="11">
         <f>A97+5</f>
         <v>93</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="14">
         <v>0.23594907407407406</v>
       </c>
-      <c r="C98">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99">
+      <c r="C98" s="11">
+        <v>60</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="14">
         <v>0.23824074074074075</v>
       </c>
-      <c r="C99">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100">
+      <c r="C99" s="11">
+        <v>60</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="14">
         <v>0.23997685185185183</v>
       </c>
-      <c r="C100">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101">
+      <c r="C100" s="11">
+        <v>60</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="11">
         <f>A100+10</f>
         <v>113</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="14">
         <v>0.24944444444444444</v>
       </c>
-      <c r="C101">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102">
+      <c r="C101" s="11">
+        <v>60</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="11">
         <f t="shared" ref="A102:A110" si="3">A101+10</f>
         <v>123</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="14">
         <v>0.25062499999999999</v>
       </c>
-      <c r="C102">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103">
+      <c r="C102" s="11">
+        <v>60</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="11">
         <f>A102+10</f>
         <v>133</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="14">
         <v>0.25166666666666665</v>
       </c>
-      <c r="C103">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104">
+      <c r="C103" s="11">
+        <v>60</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="11">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="14">
         <v>0.25284722222222222</v>
       </c>
-      <c r="C104">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105">
+      <c r="C104" s="11">
+        <v>60</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="11">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="14">
         <v>0.25415509259259256</v>
       </c>
-      <c r="C105">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106">
+      <c r="C105" s="11">
+        <v>60</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="11">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="14">
         <v>0.25556712962962963</v>
       </c>
-      <c r="C106">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107">
+      <c r="C106" s="11">
+        <v>60</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="11">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="14">
         <v>0.25745370370370368</v>
       </c>
-      <c r="C107">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108">
+      <c r="C107" s="11">
+        <v>60</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="11">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="14">
         <v>0.34049768518518514</v>
       </c>
-      <c r="C108">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109">
+      <c r="C108" s="11">
+        <v>60</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="11">
         <f>A108+10</f>
         <v>193</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="14">
         <v>0.34300925925925929</v>
       </c>
-      <c r="C109">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110">
+      <c r="C109" s="11">
+        <v>60</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="11">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="14">
         <v>0.40418981481481481</v>
       </c>
-      <c r="C110">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="6" t="s">
+      <c r="C110" s="11">
+        <v>60</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114">
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="11">
+        <v>33</v>
+      </c>
+      <c r="B114" s="11">
+        <v>1</v>
+      </c>
+      <c r="C114" s="14">
+        <v>0.21182870370370369</v>
+      </c>
+      <c r="D114" s="11">
+        <v>60</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="11">
         <v>38</v>
       </c>
-      <c r="B114">
+      <c r="B115" s="11">
         <v>1</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C115" s="14">
         <v>0.26134259259259257</v>
       </c>
-      <c r="D114">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115">
+      <c r="D115" s="11">
+        <v>60</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="11">
         <v>38</v>
       </c>
-      <c r="B115">
+      <c r="B116" s="11">
         <v>2</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C116" s="14">
         <v>0.26368055555555553</v>
       </c>
-      <c r="D115">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116">
+      <c r="D116" s="11">
+        <v>60</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="11">
         <v>43</v>
       </c>
-      <c r="B116">
+      <c r="B117" s="11">
         <v>1</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C117" s="14">
         <v>0.26739583333333333</v>
       </c>
-      <c r="D116">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <f>A116+5</f>
+      <c r="D117" s="11">
+        <v>60</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="11">
+        <f>A117+5</f>
         <v>48</v>
       </c>
-      <c r="B117">
+      <c r="B118" s="11">
         <v>1</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C118" s="14">
         <v>0.26971064814814816</v>
       </c>
-      <c r="D117">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <f t="shared" ref="A118:A126" si="4">A117+5</f>
+      <c r="D118" s="11">
+        <v>60</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="11">
+        <f t="shared" ref="A119:A127" si="4">A118+5</f>
         <v>53</v>
       </c>
-      <c r="B118">
+      <c r="B119" s="11">
         <v>1</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C119" s="14">
         <v>0.27203703703703702</v>
       </c>
-      <c r="D118">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119">
+      <c r="D119" s="11">
+        <v>60</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="11">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B119">
+      <c r="B120" s="11">
         <v>1</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C120" s="14">
         <v>0.27429398148148149</v>
       </c>
-      <c r="D119">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120">
+      <c r="D120" s="11">
+        <v>60</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="11">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B120">
+      <c r="B121" s="11">
         <v>1</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C121" s="14">
         <v>0.27711805555555552</v>
       </c>
-      <c r="D120">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121">
+      <c r="D121" s="11">
+        <v>60</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="11">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B121">
+      <c r="B122" s="11">
         <v>1</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C122" s="14">
         <v>0.22165509259259261</v>
       </c>
-      <c r="D121">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <f>A121+5</f>
+      <c r="D122" s="11">
+        <v>60</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="11">
+        <f>A122+5</f>
         <v>73</v>
       </c>
-      <c r="B122">
+      <c r="B123" s="11">
         <v>1</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C123" s="14">
         <v>0.27969907407407407</v>
       </c>
-      <c r="D122">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123">
+      <c r="D123" s="11">
+        <v>60</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="11">
         <v>73</v>
       </c>
-      <c r="B123">
+      <c r="B124" s="11">
         <v>2</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C124" s="14">
         <v>0.28221064814814817</v>
       </c>
-      <c r="D123">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <f>A122+5</f>
+      <c r="D124" s="11">
+        <v>60</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="11">
+        <f>A123+5</f>
         <v>78</v>
       </c>
-      <c r="B124">
+      <c r="B125" s="11">
         <v>2</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C125" s="14">
         <v>0.28638888888888886</v>
       </c>
-      <c r="D124">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125">
+      <c r="D125" s="11">
+        <v>60</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="11">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B125">
+      <c r="B126" s="11">
         <v>2</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C126" s="14">
         <v>0.28886574074074073</v>
       </c>
-      <c r="D125">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126">
+      <c r="D126" s="11">
+        <v>60</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="11">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B126">
+      <c r="B127" s="11">
         <v>1</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C127" s="14">
         <v>0.23299768518518518</v>
       </c>
-      <c r="D126">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127">
+      <c r="D127" s="11">
+        <v>60</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="11">
         <v>88</v>
       </c>
-      <c r="B127">
+      <c r="B128" s="11">
         <v>2</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C128" s="14">
         <v>0.29135416666666664</v>
       </c>
-      <c r="D127">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="6" t="s">
+      <c r="D128" s="11">
+        <v>60</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="17"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B130" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C130" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D130" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E130" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130">
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="11">
         <v>38</v>
       </c>
-      <c r="B130">
+      <c r="B131" s="11">
         <v>-1</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C131" s="14">
         <v>0.26597222222222222</v>
       </c>
-      <c r="D130">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131">
+      <c r="D131" s="11">
+        <v>60</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="11">
         <v>43</v>
       </c>
-      <c r="B131">
+      <c r="B132" s="11">
         <v>-1</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C132" s="14">
         <v>0.26850694444444445</v>
       </c>
-      <c r="D131">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132">
-        <f>A131+5</f>
+      <c r="D132" s="11">
+        <v>60</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="11">
+        <f>A132+5</f>
         <v>48</v>
       </c>
-      <c r="B132">
+      <c r="B133" s="11">
         <v>-1</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C133" s="14">
         <v>0.27074074074074073</v>
       </c>
-      <c r="D132">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133">
-        <f t="shared" ref="A133:A141" si="5">A132+5</f>
+      <c r="D133" s="11">
+        <v>60</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="11">
+        <f t="shared" ref="A134:A142" si="5">A133+5</f>
         <v>53</v>
       </c>
-      <c r="B133">
+      <c r="B134" s="11">
         <v>-1</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C134" s="14">
         <v>0.2729861111111111</v>
       </c>
-      <c r="D133">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134">
+      <c r="D134" s="11">
+        <v>60</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="11">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="B134">
+      <c r="B135" s="11">
         <v>-1</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C135" s="14">
         <v>0.27564814814814814</v>
       </c>
-      <c r="D134">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135">
+      <c r="D135" s="11">
+        <v>60</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="11">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="B135">
+      <c r="B136" s="11">
         <v>-1</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C136" s="14">
         <v>0.27833333333333332</v>
       </c>
-      <c r="D135">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136">
+      <c r="D136" s="11">
+        <v>60</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="11">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="B136">
+      <c r="B137" s="11">
         <v>-1</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C137" s="14">
         <v>0.22283564814814816</v>
       </c>
-      <c r="D136">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137">
-        <f>A136+5</f>
+      <c r="D137" s="11">
+        <v>60</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="11">
+        <f>A137+5</f>
         <v>73</v>
       </c>
-      <c r="B137">
+      <c r="B138" s="11">
         <v>-1</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C138" s="14">
         <v>0.28097222222222223</v>
       </c>
-      <c r="D137">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138">
+      <c r="D138" s="11">
+        <v>60</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="11">
         <v>73</v>
       </c>
-      <c r="B138">
+      <c r="B139" s="11">
         <v>-2</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C139" s="14">
         <v>0.28427083333333331</v>
       </c>
-      <c r="D138">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A139">
-        <f>A137+5</f>
+      <c r="D139" s="11">
+        <v>60</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="11">
+        <f>A138+5</f>
         <v>78</v>
       </c>
-      <c r="B139">
+      <c r="B140" s="11">
         <v>-2</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C140" s="14">
         <v>0.28751157407407407</v>
       </c>
-      <c r="D139">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A140">
+      <c r="D140" s="11">
+        <v>60</v>
+      </c>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="11">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="B140">
+      <c r="B141" s="11">
         <v>-2</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C141" s="14">
         <v>0.29001157407407407</v>
       </c>
-      <c r="D140">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A141">
+      <c r="D141" s="11">
+        <v>60</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="11">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="B141">
+      <c r="B142" s="11">
         <v>-1</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C142" s="14">
         <v>0.23432870370370371</v>
       </c>
-      <c r="D141">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A142">
+      <c r="D142" s="11">
+        <v>60</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="11">
         <v>88</v>
       </c>
-      <c r="B142">
+      <c r="B143" s="11">
         <v>-2</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C143" s="14">
         <v>0.29252314814814812</v>
       </c>
-      <c r="D142">
-        <v>60</v>
-      </c>
+      <c r="D143" s="11">
+        <v>60</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05ED70-8F51-4F0F-8D9B-2AFD3B1C756A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A46D4-F22A-4E1D-9E93-D2C9D982AD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -103,13 +103,49 @@
   </si>
   <si>
     <t>Ml38b-1</t>
+  </si>
+  <si>
+    <t>Maxima</t>
+  </si>
+  <si>
+    <t>velocity km/s</t>
+  </si>
+  <si>
+    <t>Maxima 1</t>
+  </si>
+  <si>
+    <t>temperature [K]</t>
+  </si>
+  <si>
+    <t>Maxima 2</t>
+  </si>
+  <si>
+    <t>Maxima 3</t>
+  </si>
+  <si>
+    <t>Maxima 4</t>
+  </si>
+  <si>
+    <t>Maxima 5</t>
+  </si>
+  <si>
+    <t>.41.3</t>
+  </si>
+  <si>
+    <t>Maxima 6</t>
+  </si>
+  <si>
+    <t>Maxima 7</t>
+  </si>
+  <si>
+    <t>Maxima 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +193,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -200,6 +248,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -492,13 +542,20 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.06640625" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -533,6 +590,10 @@
       <c r="A7" s="8">
         <v>1410</v>
       </c>
+      <c r="G7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
@@ -553,7 +614,12 @@
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
@@ -571,6 +637,12 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
+      <c r="G9">
+        <v>2200</v>
+      </c>
+      <c r="H9">
+        <v>308.3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
@@ -585,6 +657,12 @@
       <c r="E10">
         <v>10</v>
       </c>
+      <c r="G10">
+        <v>2181.1</v>
+      </c>
+      <c r="H10">
+        <v>318.5</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
@@ -599,6 +677,12 @@
       <c r="E11">
         <v>10</v>
       </c>
+      <c r="G11">
+        <v>2200</v>
+      </c>
+      <c r="H11">
+        <v>324.8</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
@@ -613,6 +697,12 @@
       <c r="E12">
         <v>10</v>
       </c>
+      <c r="G12">
+        <v>2198.9</v>
+      </c>
+      <c r="H12">
+        <v>322.39999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
@@ -627,6 +717,12 @@
       <c r="E13">
         <v>10</v>
       </c>
+      <c r="G13">
+        <v>2194.6999999999998</v>
+      </c>
+      <c r="H13">
+        <v>312.89999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
@@ -641,6 +737,12 @@
       <c r="E14">
         <v>5</v>
       </c>
+      <c r="G14">
+        <v>2193.8000000000002</v>
+      </c>
+      <c r="H14">
+        <v>314.5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
@@ -655,6 +757,12 @@
       <c r="E15">
         <v>5</v>
       </c>
+      <c r="G15">
+        <v>2195.1</v>
+      </c>
+      <c r="H15">
+        <v>312.89999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
@@ -669,8 +777,14 @@
       <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>2191.1</v>
+      </c>
+      <c r="H16">
+        <v>361.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>0.3578587962962963</v>
       </c>
@@ -683,8 +797,14 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>2192.9</v>
+      </c>
+      <c r="H17">
+        <v>327.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>0.35844907407407406</v>
       </c>
@@ -697,8 +817,14 @@
       <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <v>2105</v>
+      </c>
+      <c r="H18">
+        <v>335.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>0.35903935185185182</v>
       </c>
@@ -711,8 +837,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <v>2160.6</v>
+      </c>
+      <c r="H19">
+        <v>318.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>0.35951388888888891</v>
       </c>
@@ -725,8 +857,14 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G20">
+        <v>2201.1</v>
+      </c>
+      <c r="H20">
+        <v>387.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>0.36000000000000004</v>
       </c>
@@ -739,8 +877,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G21">
+        <v>2172.1999999999998</v>
+      </c>
+      <c r="H21">
+        <v>685.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>0.3605902777777778</v>
       </c>
@@ -753,8 +897,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G22">
+        <v>2213.6</v>
+      </c>
+      <c r="H22">
+        <v>407.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>0.36108796296296292</v>
       </c>
@@ -767,8 +917,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G23">
+        <v>2217.9</v>
+      </c>
+      <c r="H23">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>0.36185185185185187</v>
       </c>
@@ -781,8 +937,14 @@
       <c r="E24">
         <v>-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G24">
+        <v>2211.5</v>
+      </c>
+      <c r="H24">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>0.36234953703703704</v>
       </c>
@@ -795,8 +957,14 @@
       <c r="E25">
         <v>-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G25">
+        <v>2161.8000000000002</v>
+      </c>
+      <c r="H25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>0.3628703703703704</v>
       </c>
@@ -809,8 +977,14 @@
       <c r="E26">
         <v>-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G26">
+        <v>2203.1</v>
+      </c>
+      <c r="H26">
+        <v>318.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>0.36346064814814816</v>
       </c>
@@ -823,8 +997,14 @@
       <c r="E27">
         <v>-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G27">
+        <v>2193.1</v>
+      </c>
+      <c r="H27">
+        <v>307.60000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>0.36398148148148146</v>
       </c>
@@ -837,8 +1017,14 @@
       <c r="E28">
         <v>-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G28">
+        <v>2183.4</v>
+      </c>
+      <c r="H28">
+        <v>315.60000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
         <v>0.36464120370370368</v>
       </c>
@@ -851,8 +1037,14 @@
       <c r="E29">
         <v>-10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G29">
+        <v>2168.4</v>
+      </c>
+      <c r="H29">
+        <v>306.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
         <v>0.36515046296296294</v>
       </c>
@@ -865,8 +1057,14 @@
       <c r="E30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G30">
+        <v>2160.1</v>
+      </c>
+      <c r="H30">
+        <v>313.39999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>0.3656712962962963</v>
       </c>
@@ -879,8 +1077,14 @@
       <c r="E31">
         <v>-10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G31">
+        <v>2185.1999999999998</v>
+      </c>
+      <c r="H31">
+        <v>321.89999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>0.3661342592592593</v>
       </c>
@@ -893,8 +1097,14 @@
       <c r="E32">
         <v>-10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G32">
+        <v>2187.3000000000002</v>
+      </c>
+      <c r="H32">
+        <v>314.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>0.36663194444444441</v>
       </c>
@@ -907,27 +1117,37 @@
       <c r="E33">
         <v>-10</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G33">
+        <v>2169.3000000000002</v>
+      </c>
+      <c r="H33">
+        <v>305.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <v>1410</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -946,9 +1166,14 @@
       <c r="F38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>0.36813657407407407</v>
       </c>
@@ -965,7 +1190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>0.36921296296296297</v>
       </c>
@@ -980,7 +1205,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>0.36958333333333332</v>
       </c>
@@ -995,7 +1220,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>0.36994212962962963</v>
       </c>
@@ -1010,7 +1235,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>0.37041666666666667</v>
       </c>
@@ -1025,7 +1250,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>0.3707523148148148</v>
       </c>
@@ -1040,7 +1265,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>0.37123842592592587</v>
       </c>
@@ -1055,7 +1280,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>0.37170138888888887</v>
       </c>
@@ -1070,7 +1295,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>0.37208333333333332</v>
       </c>
@@ -1085,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>0.37248842592592596</v>
       </c>
@@ -1580,7 +1805,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>84</v>
       </c>
@@ -1594,7 +1819,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>84</v>
       </c>
@@ -1608,7 +1833,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="11"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -1616,17 +1841,47 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G84" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="11"/>
+      <c r="M84" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N84" s="11"/>
+      <c r="O84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R84" s="11"/>
+      <c r="S84" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" s="11"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>6</v>
       </c>
@@ -1639,10 +1894,56 @@
       <c r="D85" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T85" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>33</v>
       </c>
@@ -1655,10 +1956,32 @@
       <c r="D86" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E86" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="F86" s="11">
+        <v>37.9</v>
+      </c>
+      <c r="G86" s="11">
+        <v>41.7</v>
+      </c>
+      <c r="H86" s="11">
+        <v>30.2</v>
+      </c>
+      <c r="I86" s="11">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="J86" s="11">
+        <v>25.1</v>
+      </c>
+      <c r="K86" s="19">
+        <v>-46</v>
+      </c>
+      <c r="L86" s="19">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>38</v>
       </c>
@@ -1669,10 +1992,38 @@
         <v>60</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E87" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="F87" s="11">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G87" s="19">
+        <v>32.1</v>
+      </c>
+      <c r="H87" s="19">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I87" s="19">
+        <v>58.9</v>
+      </c>
+      <c r="J87" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K87" s="19">
+        <v>71.2</v>
+      </c>
+      <c r="L87" s="19">
+        <v>25.6</v>
+      </c>
+      <c r="M87" s="11">
+        <v>-33.9</v>
+      </c>
+      <c r="N87" s="11">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>43</v>
       </c>
@@ -1683,10 +2034,32 @@
         <v>60</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E88" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="F88" s="11">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G88" s="11">
+        <v>30.4</v>
+      </c>
+      <c r="H88" s="11">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I88" s="11">
+        <v>61.3</v>
+      </c>
+      <c r="J88" s="11">
+        <v>33.9</v>
+      </c>
+      <c r="K88" s="11">
+        <v>-52</v>
+      </c>
+      <c r="L88" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <f>A88+5</f>
         <v>48</v>
@@ -1698,10 +2071,26 @@
         <v>60</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E89" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="F89" s="11">
+        <v>38.6</v>
+      </c>
+      <c r="G89" s="11">
+        <v>53.2</v>
+      </c>
+      <c r="H89" s="11">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I89" s="11">
+        <v>-45.7</v>
+      </c>
+      <c r="J89" s="11">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <f t="shared" ref="A90:A100" si="2">A89+5</f>
         <v>53</v>
@@ -1713,10 +2102,26 @@
         <v>60</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E90" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="F90" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="G90" s="11">
+        <v>46.9</v>
+      </c>
+      <c r="H90" s="11">
+        <v>34.6</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-50</v>
+      </c>
+      <c r="J90" s="11">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -1728,10 +2133,20 @@
         <v>60</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E91" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="F91" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="G91" s="11">
+        <v>-64.8</v>
+      </c>
+      <c r="H91" s="11">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -1743,10 +2158,20 @@
         <v>60</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E92" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="F92" s="11">
+        <v>48.2</v>
+      </c>
+      <c r="G92" s="11">
+        <v>-67.7</v>
+      </c>
+      <c r="H92" s="11">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -1758,10 +2183,20 @@
         <v>60</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E93" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="F93" s="11">
+        <v>54.5</v>
+      </c>
+      <c r="G93" s="11">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="H93" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <f>A93+5</f>
         <v>73</v>
@@ -1773,10 +2208,20 @@
         <v>60</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E94" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="F94" s="11">
+        <v>56.7</v>
+      </c>
+      <c r="G94" s="11">
+        <v>-72.400000000000006</v>
+      </c>
+      <c r="H94" s="11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -1788,10 +2233,26 @@
         <v>60</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E95" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="F95" s="11">
+        <v>55.2</v>
+      </c>
+      <c r="G95" s="11">
+        <v>-30.6</v>
+      </c>
+      <c r="H95" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I95" s="11">
+        <v>-69.7</v>
+      </c>
+      <c r="J95" s="11">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -1803,10 +2264,26 @@
         <v>60</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E96" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F96" s="11">
+        <v>48.1</v>
+      </c>
+      <c r="G96" s="11">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="H96" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I96" s="11">
+        <v>-73.7</v>
+      </c>
+      <c r="J96" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -1818,10 +2295,32 @@
         <v>60</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E97" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F97" s="11">
+        <v>41.9</v>
+      </c>
+      <c r="G97" s="11">
+        <v>-45.1</v>
+      </c>
+      <c r="H97" s="11">
+        <v>22</v>
+      </c>
+      <c r="I97" s="11">
+        <v>-74</v>
+      </c>
+      <c r="J97" s="11">
+        <v>16.7</v>
+      </c>
+      <c r="K97" s="19">
+        <v>206.4</v>
+      </c>
+      <c r="L97" s="19">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <f>A97+5</f>
         <v>93</v>
@@ -1833,10 +2332,44 @@
         <v>60</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>42.5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="11">
+        <v>21.8</v>
+      </c>
+      <c r="I98" s="19">
+        <v>-16.5</v>
+      </c>
+      <c r="J98" s="19">
+        <v>25.2</v>
+      </c>
+      <c r="K98" s="11">
+        <v>-76.3</v>
+      </c>
+      <c r="L98" s="11">
+        <v>15</v>
+      </c>
+      <c r="M98" s="19">
+        <v>-88.7</v>
+      </c>
+      <c r="N98" s="19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O98" s="19">
+        <v>-109.3</v>
+      </c>
+      <c r="P98" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -1848,10 +2381,38 @@
         <v>60</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E99" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="F99" s="11">
+        <v>38</v>
+      </c>
+      <c r="G99" s="11">
+        <v>-35.6</v>
+      </c>
+      <c r="H99" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="I99" s="11">
+        <v>-62.4</v>
+      </c>
+      <c r="J99" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="K99" s="11">
+        <v>-23.3</v>
+      </c>
+      <c r="L99" s="11">
+        <v>24</v>
+      </c>
+      <c r="M99" s="19">
+        <v>-118.1</v>
+      </c>
+      <c r="N99" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -1863,10 +2424,32 @@
         <v>60</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E100" s="11">
+        <v>-3.3</v>
+      </c>
+      <c r="F100" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="G100" s="11">
+        <v>-50.8</v>
+      </c>
+      <c r="H100" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="I100" s="19">
+        <v>-98.7</v>
+      </c>
+      <c r="J100" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K100" s="19">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="L100" s="19">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <f>A100+10</f>
         <v>113</v>
@@ -1878,10 +2461,44 @@
         <v>60</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E101" s="11">
+        <v>-9.4</v>
+      </c>
+      <c r="F101" s="11">
+        <v>38.9</v>
+      </c>
+      <c r="G101" s="11">
+        <v>-50.6</v>
+      </c>
+      <c r="H101" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="I101" s="11">
+        <v>-65</v>
+      </c>
+      <c r="J101" s="11">
+        <v>23</v>
+      </c>
+      <c r="K101" s="11">
+        <v>-100.1</v>
+      </c>
+      <c r="L101" s="11">
+        <v>12.6</v>
+      </c>
+      <c r="M101" s="19">
+        <v>-65.8</v>
+      </c>
+      <c r="N101" s="19">
+        <v>29</v>
+      </c>
+      <c r="O101" s="19">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="P101" s="19">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <f t="shared" ref="A102:A110" si="3">A101+10</f>
         <v>123</v>
@@ -1893,10 +2510,44 @@
         <v>60</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E102" s="11">
+        <v>-7.4</v>
+      </c>
+      <c r="F102" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="G102" s="11">
+        <v>-3.3</v>
+      </c>
+      <c r="H102" s="11">
+        <v>35.4</v>
+      </c>
+      <c r="I102" s="19">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="J102" s="19">
+        <v>22.4</v>
+      </c>
+      <c r="K102" s="11">
+        <v>-56.9</v>
+      </c>
+      <c r="L102" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="M102" s="19">
+        <v>-96</v>
+      </c>
+      <c r="N102" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="O102" s="19">
+        <v>89.5</v>
+      </c>
+      <c r="P102" s="19">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="11">
         <f>A102+10</f>
         <v>133</v>
@@ -1908,10 +2559,38 @@
         <v>60</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E103" s="11">
+        <v>-3.4</v>
+      </c>
+      <c r="F103" s="11">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G103" s="19">
+        <v>-11.6</v>
+      </c>
+      <c r="H103" s="19">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I103" s="11">
+        <v>-50.8</v>
+      </c>
+      <c r="J103" s="11">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K103" s="19">
+        <v>-94.1</v>
+      </c>
+      <c r="L103" s="19">
+        <v>12.1</v>
+      </c>
+      <c r="M103" s="19">
+        <v>149.1</v>
+      </c>
+      <c r="N103" s="19">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
         <f t="shared" si="3"/>
         <v>143</v>
@@ -1923,10 +2602,50 @@
         <v>60</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E104" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F104" s="19">
+        <v>35.1</v>
+      </c>
+      <c r="G104" s="11">
+        <v>-6.3</v>
+      </c>
+      <c r="H104" s="11">
+        <v>36</v>
+      </c>
+      <c r="I104" s="11">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J104" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="K104" s="11">
+        <v>-74.3</v>
+      </c>
+      <c r="L104" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="M104" s="19">
+        <v>123.5</v>
+      </c>
+      <c r="N104" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="O104" s="20">
+        <v>111.2</v>
+      </c>
+      <c r="P104" s="20">
+        <v>14.4</v>
+      </c>
+      <c r="Q104" s="19">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="R104" s="19">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
         <f t="shared" si="3"/>
         <v>153</v>
@@ -1938,10 +2657,32 @@
         <v>60</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E105" s="11">
+        <v>-7.6</v>
+      </c>
+      <c r="F105" s="11">
+        <v>40</v>
+      </c>
+      <c r="G105" s="19">
+        <v>-24.1</v>
+      </c>
+      <c r="H105" s="19">
+        <v>37.4</v>
+      </c>
+      <c r="I105" s="11">
+        <v>-36.4</v>
+      </c>
+      <c r="J105" s="11">
+        <v>41.2</v>
+      </c>
+      <c r="K105" s="11">
+        <v>-48.8</v>
+      </c>
+      <c r="L105" s="11">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -1953,10 +2694,50 @@
         <v>60</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E106" s="11">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="F106" s="11">
+        <v>38.1</v>
+      </c>
+      <c r="G106" s="19">
+        <v>-24.3</v>
+      </c>
+      <c r="H106" s="19">
+        <v>37</v>
+      </c>
+      <c r="I106" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="J106" s="19">
+        <v>16</v>
+      </c>
+      <c r="K106" s="19">
+        <v>-55.2</v>
+      </c>
+      <c r="L106" s="19">
+        <v>14.7</v>
+      </c>
+      <c r="M106" s="19">
+        <v>-61.2</v>
+      </c>
+      <c r="N106" s="19">
+        <v>12.3</v>
+      </c>
+      <c r="O106" s="19">
+        <v>117.9</v>
+      </c>
+      <c r="P106" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q106" s="19">
+        <v>185.9</v>
+      </c>
+      <c r="R106" s="19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -1968,10 +2749,50 @@
         <v>60</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E107" s="11">
+        <v>-5.5</v>
+      </c>
+      <c r="F107" s="11">
+        <v>51.1</v>
+      </c>
+      <c r="G107" s="19">
+        <v>-1.4</v>
+      </c>
+      <c r="H107" s="19">
+        <v>47.7</v>
+      </c>
+      <c r="I107" s="19">
+        <v>-11.7</v>
+      </c>
+      <c r="J107" s="19">
+        <v>48</v>
+      </c>
+      <c r="K107" s="19">
+        <v>-46.7</v>
+      </c>
+      <c r="L107" s="19">
+        <v>13.1</v>
+      </c>
+      <c r="M107" s="19">
+        <v>-118.8</v>
+      </c>
+      <c r="N107" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="O107" s="19">
+        <v>-201.3</v>
+      </c>
+      <c r="P107" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="Q107" s="19">
+        <v>83.1</v>
+      </c>
+      <c r="R107" s="19">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -1983,10 +2804,32 @@
         <v>60</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E108" s="11">
+        <v>-1.5</v>
+      </c>
+      <c r="F108" s="11">
+        <v>55.6</v>
+      </c>
+      <c r="G108" s="19">
+        <v>52.1</v>
+      </c>
+      <c r="H108" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="I108" s="19">
+        <v>87.2</v>
+      </c>
+      <c r="J108" s="19">
+        <v>13.6</v>
+      </c>
+      <c r="K108" s="19">
+        <v>-67.400000000000006</v>
+      </c>
+      <c r="L108" s="19">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="11">
         <f>A108+10</f>
         <v>193</v>
@@ -1998,10 +2841,26 @@
         <v>60</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E109" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="F109" s="11">
+        <v>53.3</v>
+      </c>
+      <c r="G109" s="19">
+        <v>102.4</v>
+      </c>
+      <c r="H109" s="19">
+        <v>12.9</v>
+      </c>
+      <c r="I109" s="19">
+        <v>-62.4</v>
+      </c>
+      <c r="J109" s="19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -2013,10 +2872,56 @@
         <v>60</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E110" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="F110" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="G110" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="H110" s="11">
+        <v>41.1</v>
+      </c>
+      <c r="I110" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="J110" s="11">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K110" s="19">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L110" s="19">
+        <v>29.1</v>
+      </c>
+      <c r="M110" s="19">
+        <v>55.8</v>
+      </c>
+      <c r="N110" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="O110" s="19">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="P110" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="Q110" s="19">
+        <v>68.2</v>
+      </c>
+      <c r="R110" s="19">
+        <v>12.9</v>
+      </c>
+      <c r="S110" s="19">
+        <v>-197.7</v>
+      </c>
+      <c r="T110" s="19">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -2024,7 +2929,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A46D4-F22A-4E1D-9E93-D2C9D982AD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F721FA4-D05C-4A56-8EA1-80DF0799BD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +199,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -250,6 +259,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1142,7 +1152,7 @@
       <c r="A37" s="8">
         <v>1410</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H37" s="11"/>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F721FA4-D05C-4A56-8EA1-80DF0799BD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B412C-97E7-4439-AF16-2B133035DB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="4343" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>GK Breite</t>
   </si>
   <si>
-    <t>S_Kreuz_Az+16Al00</t>
-  </si>
-  <si>
     <t>S_Kreuz_Az+00Al-16</t>
   </si>
   <si>
@@ -140,12 +137,15 @@
   <si>
     <t>Maxima 8</t>
   </si>
+  <si>
+    <t>S_Kreuz_Az-16Al00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +199,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -259,7 +250,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -601,7 +591,7 @@
         <v>1410</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -625,10 +615,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -645,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>2200</v>
@@ -1152,8 +1142,8 @@
       <c r="A37" s="8">
         <v>1410</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>25</v>
+      <c r="G37" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="H37" s="11"/>
     </row>
@@ -1177,10 +1167,10 @@
         <v>14</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -1197,7 +1187,13 @@
         <v>-16</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <v>2203</v>
+      </c>
+      <c r="H39">
+        <v>306.89999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -1214,6 +1210,12 @@
         <f t="shared" ref="E40:E55" si="0">E39+2</f>
         <v>-14</v>
       </c>
+      <c r="G40">
+        <v>2171.1999999999998</v>
+      </c>
+      <c r="H40">
+        <v>306.2</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
@@ -1229,6 +1231,12 @@
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
+      <c r="G41">
+        <v>2206.8000000000002</v>
+      </c>
+      <c r="H41">
+        <v>309.2</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
@@ -1244,6 +1252,12 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
+      <c r="G42">
+        <v>2186.9</v>
+      </c>
+      <c r="H42">
+        <v>316.89999999999998</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
@@ -1259,6 +1273,12 @@
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
+      <c r="G43">
+        <v>2216.4</v>
+      </c>
+      <c r="H43">
+        <v>327.9</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
@@ -1274,6 +1294,12 @@
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
+      <c r="G44">
+        <v>2192.4</v>
+      </c>
+      <c r="H44">
+        <v>320</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
@@ -1289,6 +1315,12 @@
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
+      <c r="G45">
+        <v>2242.9</v>
+      </c>
+      <c r="H45">
+        <v>346.1</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
@@ -1304,6 +1336,12 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
+      <c r="G46">
+        <v>2181.6</v>
+      </c>
+      <c r="H46">
+        <v>489.4</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
@@ -1319,6 +1357,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G47">
+        <v>2209.4</v>
+      </c>
+      <c r="H47">
+        <v>660.9</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
@@ -1334,8 +1378,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G48">
+        <v>2207.8000000000002</v>
+      </c>
+      <c r="H48">
+        <v>655.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>0.37283564814814812</v>
       </c>
@@ -1349,8 +1399,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G49">
+        <v>2198.1999999999998</v>
+      </c>
+      <c r="H49">
+        <v>486.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
         <v>0.37321759259259263</v>
       </c>
@@ -1364,8 +1420,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G50">
+        <v>2217.6</v>
+      </c>
+      <c r="H50">
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
         <v>0.37354166666666666</v>
       </c>
@@ -1379,8 +1441,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G51">
+        <v>2199.9</v>
+      </c>
+      <c r="H51">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
         <v>0.3739467592592593</v>
       </c>
@@ -1394,8 +1462,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G52">
+        <v>2200.8000000000002</v>
+      </c>
+      <c r="H52">
+        <v>324.10000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
         <v>0.37436342592592592</v>
       </c>
@@ -1409,8 +1483,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G53">
+        <v>2187</v>
+      </c>
+      <c r="H53">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>0.3747685185185185</v>
       </c>
@@ -1424,8 +1504,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G54">
+        <v>2200.4</v>
+      </c>
+      <c r="H54">
+        <v>304.39999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <v>0.37513888888888891</v>
       </c>
@@ -1439,8 +1525,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G55">
+        <v>2217.5</v>
+      </c>
+      <c r="H55">
+        <v>302.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
         <v>0.37572916666666667</v>
       </c>
@@ -1454,11 +1546,16 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>2183.1999999999998</v>
+      </c>
+      <c r="H56">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
         <v>0.37606481481481485</v>
       </c>
@@ -1472,9 +1569,14 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G57">
+        <v>2160.6999999999998</v>
+      </c>
+      <c r="H57">
+        <v>316.10000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
         <v>0.37643518518518521</v>
       </c>
@@ -1488,9 +1590,14 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G58">
+        <v>2202.5</v>
+      </c>
+      <c r="H58">
+        <v>321.10000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
         <v>0.37680555555555556</v>
       </c>
@@ -1504,9 +1611,14 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G59">
+        <v>2185</v>
+      </c>
+      <c r="H59">
+        <v>320.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
         <v>0.37731481481481483</v>
       </c>
@@ -1520,9 +1632,14 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G60">
+        <v>2160.6999999999998</v>
+      </c>
+      <c r="H60">
+        <v>316.10000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>0.37783564814814818</v>
       </c>
@@ -1536,9 +1653,14 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G61">
+        <v>2196.9</v>
+      </c>
+      <c r="H61">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>0.37820601851851854</v>
       </c>
@@ -1552,9 +1674,14 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G62">
+        <v>2174.9</v>
+      </c>
+      <c r="H62">
+        <v>435.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
         <v>0.3785648148148148</v>
       </c>
@@ -1568,9 +1695,14 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G63">
+        <v>2216.8000000000002</v>
+      </c>
+      <c r="H63">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>0.3790162037037037</v>
       </c>
@@ -1584,9 +1716,14 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G64">
+        <v>2209.4</v>
+      </c>
+      <c r="H64">
+        <v>660.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>0.37952546296296297</v>
       </c>
@@ -1600,9 +1737,14 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G65">
+        <v>2249.6</v>
+      </c>
+      <c r="H65">
+        <v>654.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>0.37996527777777778</v>
       </c>
@@ -1616,9 +1758,14 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G66">
+        <v>2219.3000000000002</v>
+      </c>
+      <c r="H66">
+        <v>561.20000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
         <v>0.38030092592592596</v>
       </c>
@@ -1632,9 +1779,14 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G67">
+        <v>2193.4</v>
+      </c>
+      <c r="H67">
+        <v>429.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
         <v>0.38081018518518522</v>
       </c>
@@ -1648,9 +1800,14 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G68">
+        <v>2183.9</v>
+      </c>
+      <c r="H68">
+        <v>344.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="9">
         <v>0.38122685185185184</v>
       </c>
@@ -1664,9 +1821,14 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G69">
+        <v>2191.1</v>
+      </c>
+      <c r="H69">
+        <v>310.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="9">
         <v>0.38184027777777779</v>
       </c>
@@ -1680,9 +1842,14 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G70">
+        <v>2233.6</v>
+      </c>
+      <c r="H70">
+        <v>315.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
         <v>0.38221064814814815</v>
       </c>
@@ -1696,9 +1863,14 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G71">
+        <v>2172.4</v>
+      </c>
+      <c r="H71">
+        <v>316.89999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
         <v>0.3825810185185185</v>
       </c>
@@ -1712,12 +1884,17 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G72">
+        <v>2177.4</v>
+      </c>
+      <c r="H72">
+        <v>314.39999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1906,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1918,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1934,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>84</v>
       </c>
@@ -1768,12 +1945,12 @@
         <v>1</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>84</v>
       </c>
@@ -1787,7 +1964,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>84</v>
       </c>
@@ -1801,7 +1978,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>84</v>
       </c>
@@ -1859,35 +2036,35 @@
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
       <c r="E84" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L84" s="11"/>
       <c r="M84" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N84" s="11"/>
       <c r="O84" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P84" s="11"/>
       <c r="Q84" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R84" s="11"/>
       <c r="S84" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T84" s="11"/>
     </row>
@@ -1905,52 +2082,52 @@
         <v>5</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.45">
@@ -1964,7 +2141,7 @@
         <v>60</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86" s="11">
         <v>6.7</v>
@@ -2349,7 +2526,7 @@
         <v>42.5</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98" s="11">
         <v>21.8</v>
@@ -2979,7 +3156,7 @@
         <v>60</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114" s="13"/>
     </row>
@@ -3256,7 +3433,7 @@
         <v>60</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F131" s="11"/>
     </row>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B412C-97E7-4439-AF16-2B133035DB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB6DD71-B9F0-4C04-BB3A-DD3980869346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4343" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>S_Kreuz_Az-16Al00</t>
+  </si>
+  <si>
+    <t>fgs</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,33 +535,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.06640625" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,27 +569,27 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1410</v>
       </c>
@@ -595,7 +598,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -621,7 +624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.35391203703703705</v>
       </c>
@@ -644,7 +647,7 @@
         <v>308.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.35440972222222222</v>
       </c>
@@ -664,7 +667,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>0.35487268518518517</v>
       </c>
@@ -684,7 +687,7 @@
         <v>324.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>0.3552777777777778</v>
       </c>
@@ -704,7 +707,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>0.35570601851851852</v>
       </c>
@@ -724,7 +727,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.3562731481481482</v>
       </c>
@@ -744,7 +747,7 @@
         <v>314.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>0.35671296296296301</v>
       </c>
@@ -764,7 +767,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>0.35741898148148149</v>
       </c>
@@ -784,7 +787,7 @@
         <v>361.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>0.3578587962962963</v>
       </c>
@@ -804,7 +807,7 @@
         <v>327.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.35844907407407406</v>
       </c>
@@ -824,7 +827,7 @@
         <v>335.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>0.35903935185185182</v>
       </c>
@@ -844,7 +847,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>0.35951388888888891</v>
       </c>
@@ -864,7 +867,7 @@
         <v>387.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>0.36000000000000004</v>
       </c>
@@ -884,7 +887,7 @@
         <v>685.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>0.3605902777777778</v>
       </c>
@@ -904,7 +907,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>0.36108796296296292</v>
       </c>
@@ -924,7 +927,7 @@
         <v>313.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>0.36185185185185187</v>
       </c>
@@ -944,7 +947,7 @@
         <v>329.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>0.36234953703703704</v>
       </c>
@@ -964,7 +967,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>0.3628703703703704</v>
       </c>
@@ -984,7 +987,7 @@
         <v>318.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>0.36346064814814816</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>307.60000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>0.36398148148148146</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>0.36464120370370368</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>306.7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>0.36515046296296294</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>313.39999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>0.3656712962962963</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>321.89999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>0.3661342592592593</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>314.7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>0.36663194444444441</v>
       </c>
@@ -1124,21 +1127,21 @@
         <v>305.3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>1410</v>
       </c>
@@ -1147,7 +1150,7 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>0.36813657407407407</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>306.89999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>0.36921296296296297</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>306.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>0.36958333333333332</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>309.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>0.36994212962962963</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>316.89999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>0.37041666666666667</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>327.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>0.3707523148148148</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>0.37123842592592587</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>346.1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>0.37170138888888887</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>489.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>0.37208333333333332</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>660.9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>0.37248842592592596</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>655.1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>0.37283564814814812</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>486.3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>0.37321759259259263</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>352.6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>0.37354166666666666</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>313.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>0.3739467592592593</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>324.10000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>0.37436342592592592</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>0.3747685185185185</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>304.39999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>0.37513888888888891</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>302.2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>0.37572916666666667</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>0.37606481481481485</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>316.10000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>0.37643518518518521</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>321.10000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>0.37680555555555556</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>320.3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>0.37731481481481483</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>316.10000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>0.37783564814814818</v>
       </c>
@@ -1659,8 +1662,11 @@
       <c r="H61">
         <v>347</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>0.37820601851851854</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>435.5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>0.3785648148148148</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>0.3790162037037037</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>660.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>0.37952546296296297</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>654.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>0.37996527777777778</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>561.20000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>0.38030092592592596</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>429.4</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>0.38081018518518522</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>344.2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>0.38122685185185184</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>310.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>0.38184027777777779</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>315.2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>0.38221064814814815</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>316.89999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>0.3825810185185185</v>
       </c>
@@ -1891,10 +1897,10 @@
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
@@ -1906,7 +1912,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
@@ -1918,7 +1924,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +1940,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>84</v>
       </c>
@@ -1950,7 +1956,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>84</v>
       </c>
@@ -1964,7 +1970,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>84</v>
       </c>
@@ -1978,7 +1984,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>84</v>
       </c>
@@ -1992,7 +1998,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>84</v>
       </c>
@@ -2006,7 +2012,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>84</v>
       </c>
@@ -2020,7 +2026,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -2028,7 +2034,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
@@ -2068,7 +2074,7 @@
       </c>
       <c r="T84" s="11"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>33</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>38</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>43</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <f>A88+5</f>
         <v>48</v>
@@ -2277,7 +2283,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <f t="shared" ref="A90:A100" si="2">A89+5</f>
         <v>53</v>
@@ -2308,7 +2314,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2333,7 +2339,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2358,7 +2364,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -2383,7 +2389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <f>A93+5</f>
         <v>73</v>
@@ -2408,7 +2414,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2439,7 +2445,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2470,7 +2476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2507,7 +2513,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <f>A97+5</f>
         <v>93</v>
@@ -2556,7 +2562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -2599,7 +2605,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -2636,7 +2642,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <f>A100+10</f>
         <v>113</v>
@@ -2685,7 +2691,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <f t="shared" ref="A102:A110" si="3">A101+10</f>
         <v>123</v>
@@ -2734,7 +2740,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <f>A102+10</f>
         <v>133</v>
@@ -2777,7 +2783,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <f t="shared" si="3"/>
         <v>143</v>
@@ -2832,7 +2838,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <f t="shared" si="3"/>
         <v>153</v>
@@ -2869,7 +2875,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -2924,7 +2930,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -2979,7 +2985,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -3016,7 +3022,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <f>A108+10</f>
         <v>193</v>
@@ -3047,7 +3053,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -3108,7 +3114,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3116,7 +3122,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3124,7 +3130,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>16</v>
       </c>
@@ -3142,7 +3148,7 @@
       </c>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>33</v>
       </c>
@@ -3160,7 +3166,7 @@
       </c>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>38</v>
       </c>
@@ -3176,7 +3182,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>38</v>
       </c>
@@ -3192,7 +3198,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>43</v>
       </c>
@@ -3208,7 +3214,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <f>A117+5</f>
         <v>48</v>
@@ -3225,7 +3231,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <f t="shared" ref="A119:A127" si="4">A118+5</f>
         <v>53</v>
@@ -3242,7 +3248,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -3259,7 +3265,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3276,7 +3282,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -3293,7 +3299,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <f>A122+5</f>
         <v>73</v>
@@ -3310,7 +3316,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>73</v>
       </c>
@@ -3326,7 +3332,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <f>A123+5</f>
         <v>78</v>
@@ -3343,7 +3349,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -3360,7 +3366,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -3377,7 +3383,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>88</v>
       </c>
@@ -3393,7 +3399,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="11"/>
@@ -3401,7 +3407,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>16</v>
       </c>
@@ -3419,7 +3425,7 @@
       </c>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>38</v>
       </c>
@@ -3437,7 +3443,7 @@
       </c>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>43</v>
       </c>
@@ -3453,7 +3459,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <f>A132+5</f>
         <v>48</v>
@@ -3470,7 +3476,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <f t="shared" ref="A134:A142" si="5">A133+5</f>
         <v>53</v>
@@ -3487,7 +3493,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -3504,7 +3510,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -3521,7 +3527,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -3538,7 +3544,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <f>A137+5</f>
         <v>73</v>
@@ -3555,7 +3561,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>73</v>
       </c>
@@ -3571,7 +3577,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <f>A138+5</f>
         <v>78</v>
@@ -3588,7 +3594,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <f t="shared" si="5"/>
         <v>83</v>
@@ -3605,7 +3611,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -3622,7 +3628,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>88</v>
       </c>
@@ -3638,7 +3644,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB6DD71-B9F0-4C04-BB3A-DD3980869346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70F401-E5A1-4B41-B3A6-8169B907918A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -141,7 +141,28 @@
     <t>S_Kreuz_Az-16Al00</t>
   </si>
   <si>
-    <t>fgs</t>
+    <t>FWHM</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Max:</t>
+  </si>
+  <si>
+    <t>Fv</t>
   </si>
 </sst>
 </file>
@@ -535,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1128,7 @@
         <v>314.7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>0.36663194444444441</v>
       </c>
@@ -1127,21 +1148,21 @@
         <v>305.3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>1410</v>
       </c>
@@ -1150,7 +1171,7 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>0.36813657407407407</v>
       </c>
@@ -1199,7 +1220,7 @@
         <v>306.89999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>0.36921296296296297</v>
       </c>
@@ -1220,7 +1241,7 @@
         <v>306.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>0.36958333333333332</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>309.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>0.36994212962962963</v>
       </c>
@@ -1262,7 +1283,7 @@
         <v>316.89999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>0.37041666666666667</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>327.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>0.3707523148148148</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>0.37123842592592587</v>
       </c>
@@ -1325,7 +1346,7 @@
         <v>346.1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>0.37170138888888887</v>
       </c>
@@ -1346,7 +1367,7 @@
         <v>489.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>0.37208333333333332</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>660.9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>0.37248842592592596</v>
       </c>
@@ -1387,8 +1408,11 @@
       <c r="H48">
         <v>655.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>0.37283564814814812</v>
       </c>
@@ -1408,8 +1432,18 @@
       <c r="H49">
         <v>486.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49">
+        <f>1/((2*PI()*L51^2))^(1/2)</f>
+        <v>0.12042268149823648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>0.37321759259259263</v>
       </c>
@@ -1429,8 +1463,17 @@
       <c r="H50">
         <v>352.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50">
+        <v>313.04899999999998</v>
+      </c>
+      <c r="M50">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>0.37354166666666666</v>
       </c>
@@ -1450,8 +1493,17 @@
       <c r="H51">
         <v>313.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51">
+        <v>3.3128500000000001</v>
+      </c>
+      <c r="M51">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>0.3739467592592593</v>
       </c>
@@ -1471,8 +1523,17 @@
       <c r="H52">
         <v>324.10000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52">
+        <v>0.96792</v>
+      </c>
+      <c r="M52">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>0.37436342592592592</v>
       </c>
@@ -1492,8 +1553,17 @@
       <c r="H53">
         <v>317</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53">
+        <v>364.68099999999998</v>
+      </c>
+      <c r="M53">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>0.3747685185185185</v>
       </c>
@@ -1514,7 +1584,7 @@
         <v>304.39999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>0.37513888888888891</v>
       </c>
@@ -1534,8 +1604,11 @@
       <c r="H55">
         <v>302.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>0.37572916666666667</v>
       </c>
@@ -1557,8 +1630,12 @@
       <c r="H56">
         <v>313</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <f>((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D56-$L$52)^2)/(2*$L$51^2))</f>
+        <v>8.8332990888130466E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>0.37606481481481485</v>
       </c>
@@ -1578,8 +1655,12 @@
       <c r="H57">
         <v>316.10000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <f t="shared" ref="K57:K72" si="2">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))</f>
+        <v>1.6213133063182779E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>0.37643518518518521</v>
       </c>
@@ -1599,8 +1680,12 @@
       <c r="H58">
         <v>321.10000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>2.0669291724518264E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>0.37680555555555556</v>
       </c>
@@ -1620,8 +1705,12 @@
       <c r="H59">
         <v>320.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0.18302013829500818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>0.37731481481481483</v>
       </c>
@@ -1641,8 +1730,12 @@
       <c r="H60">
         <v>316.10000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>1.1256070379011827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>0.37783564814814818</v>
       </c>
@@ -1662,11 +1755,12 @@
       <c r="H61">
         <v>347</v>
       </c>
-      <c r="M61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>4.8082756493581558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>0.37820601851851854</v>
       </c>
@@ -1686,8 +1780,12 @@
       <c r="H62">
         <v>435.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>14.266142262821985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>0.3785648148148148</v>
       </c>
@@ -1707,8 +1805,12 @@
       <c r="H63">
         <v>560</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>29.399394130061161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>0.3790162037037037</v>
       </c>
@@ -1728,8 +1830,12 @@
       <c r="H64">
         <v>660.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>42.080883251442096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>0.37952546296296297</v>
       </c>
@@ -1749,8 +1855,12 @@
       <c r="H65">
         <v>654.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>41.835594954758534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>0.37996527777777778</v>
       </c>
@@ -1770,8 +1880,12 @@
       <c r="H66">
         <v>561.20000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>28.888280260587894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>0.38030092592592596</v>
       </c>
@@ -1791,8 +1905,12 @@
       <c r="H67">
         <v>429.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>13.85517655616554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>0.38081018518518522</v>
       </c>
@@ -1812,8 +1930,12 @@
       <c r="H68">
         <v>344.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>4.6154821570039344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>0.38122685185185184</v>
       </c>
@@ -1833,8 +1955,12 @@
       <c r="H69">
         <v>310.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>1.0679150937100179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>0.38184027777777779</v>
       </c>
@@ -1854,8 +1980,12 @@
       <c r="H70">
         <v>315.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>0.17162122976953642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>0.38221064814814815</v>
       </c>
@@ -1875,8 +2005,12 @@
       <c r="H71">
         <v>316.89999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>1.9156666157909417E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>0.3825810185185185</v>
       </c>
@@ -1896,11 +2030,15 @@
       <c r="H72">
         <v>314.39999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>1.4851950344309478E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
@@ -1912,7 +2050,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
@@ -1924,7 +2062,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +2078,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>84</v>
       </c>
@@ -1956,7 +2094,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>84</v>
       </c>
@@ -1970,7 +2108,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>84</v>
       </c>
@@ -1984,7 +2122,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>84</v>
       </c>
@@ -2285,7 +2423,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="2">A89+5</f>
+        <f t="shared" ref="A90:A100" si="3">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -2316,7 +2454,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B91" s="14">
@@ -2341,7 +2479,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B92" s="14">
@@ -2366,7 +2504,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B93" s="14">
@@ -2416,7 +2554,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B95" s="14">
@@ -2447,7 +2585,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -2478,7 +2616,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B97" s="14">
@@ -2564,7 +2702,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
@@ -2607,7 +2745,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B100" s="14">
@@ -2693,7 +2831,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="3">A101+10</f>
+        <f t="shared" ref="A102:A110" si="4">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -2785,7 +2923,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -2840,7 +2978,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -2877,7 +3015,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -2932,7 +3070,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -2987,7 +3125,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3055,7 +3193,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3233,7 +3371,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="4">A118+5</f>
+        <f t="shared" ref="A119:A127" si="5">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3250,7 +3388,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3267,7 +3405,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3284,7 +3422,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -3351,7 +3489,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -3368,7 +3506,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -3478,7 +3616,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="5">A133+5</f>
+        <f t="shared" ref="A134:A142" si="6">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -3495,7 +3633,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -3512,7 +3650,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -3529,7 +3667,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -3596,7 +3734,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -3613,7 +3751,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70F401-E5A1-4B41-B3A6-8169B907918A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0F559-BD05-4D85-ACBB-E0CD22A3A20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
         <v>41</v>
       </c>
       <c r="L53">
-        <v>364.68099999999998</v>
+        <v>5646.81</v>
       </c>
       <c r="M53">
         <v>4.76</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K56">
         <f>((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D56-$L$52)^2)/(2*$L$51^2))</f>
-        <v>8.8332990888130466E-5</v>
+        <v>1.3677696844008986E-3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="K57">
         <f t="shared" ref="K57:K72" si="2">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))</f>
-        <v>1.6213133063182779E-3</v>
+        <v>2.5104812675327524E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>2.0669291724518264E-2</v>
+        <v>0.3200483798249073</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>0.18302013829500818</v>
+        <v>2.8339286859628974</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>1.1256070379011827</v>
+        <v>17.429175300305687</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>4.8082756493581558</v>
+        <v>74.452518830298629</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>14.266142262821985</v>
+        <v>220.90044392530959</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>29.399394130061161</v>
+        <v>455.22742552414496</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>42.080883251442096</v>
+        <v>651.59071175376778</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>41.835594954758534</v>
+        <v>647.79260763922457</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>28.888280260587894</v>
+        <v>447.31321307743031</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="K67">
         <f t="shared" si="2"/>
-        <v>13.85517655616554</v>
+        <v>214.53695018144941</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>4.6154821570039344</v>
+        <v>71.467257134293789</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>1.0679150937100179</v>
+        <v>16.535859094147124</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>0.17162122976953642</v>
+        <v>2.6574251920854564</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>1.9156666157909417E-2</v>
+        <v>0.29662651475438673</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>1.4851950344309478E-3</v>
+        <v>2.2997123986100244E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
